--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0079E22-A3EF-4960-A886-9B87154C518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EB89D0-8FF5-4380-9E9B-A521A6427D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTTI I CORSI" sheetId="1" r:id="rId1"/>
     <sheet name="UNIVERSITA" sheetId="2" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="364">
   <si>
     <t>UNI</t>
   </si>
@@ -395,13 +407,736 @@
   </si>
   <si>
     <t>POSTI</t>
+  </si>
+  <si>
+    <t>Codice Ateneo</t>
+  </si>
+  <si>
+    <t>Nome Ateneo</t>
+  </si>
+  <si>
+    <t>Struttura ospitante</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Posti Disponibili</t>
+  </si>
+  <si>
+    <t>Candidature Bandi precedente a.a.</t>
+  </si>
+  <si>
+    <t>PL GLIWICE01</t>
+  </si>
+  <si>
+    <t>POLITECHNIKA SLASKA</t>
+  </si>
+  <si>
+    <t>Fac. of Automatic Control, Electronics and Computer Science</t>
+  </si>
+  <si>
+    <t>PL WROCLAW02</t>
+  </si>
+  <si>
+    <t>Course of informatics and management</t>
+  </si>
+  <si>
+    <t>E ALICANT01</t>
+  </si>
+  <si>
+    <t>Escuela Politécnica Superior</t>
+  </si>
+  <si>
+    <t>I corsi presso la sede ospitante possono essere selezionati solo a livello bachelor</t>
+  </si>
+  <si>
+    <t>E MADRID21</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD SAN PABLO CEU</t>
+  </si>
+  <si>
+    <t>EPS - Escuela Politecnica Superior</t>
+  </si>
+  <si>
+    <t>RO GALATI01</t>
+  </si>
+  <si>
+    <t>UNIVERSITY 'DUNAREA DE JOS' DIN GALATI</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>D BIELEFE01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT BIELEFELD</t>
+  </si>
+  <si>
+    <t>E LLEIDA01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT DE LLEIDA</t>
+  </si>
+  <si>
+    <t>EPS - Escola Politècnica Superior</t>
+  </si>
+  <si>
+    <t>F MARSEIL84</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ D'AIX-MARSEILLE</t>
+  </si>
+  <si>
+    <t>Polytech</t>
+  </si>
+  <si>
+    <t>RO TIMISOA04</t>
+  </si>
+  <si>
+    <t>UNIVERSITATEA POLITEHNICA DIN TIMISOARA</t>
+  </si>
+  <si>
+    <t>Faculty of Automation and Computer Science</t>
+  </si>
+  <si>
+    <t>E BADAJOZ01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE EXTREMADURA</t>
+  </si>
+  <si>
+    <t>Escuela Politecnica - campus Caceres</t>
+  </si>
+  <si>
+    <t>E SANTIAG01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDADE DE SANTIAGO DE COMPOSTELA</t>
+  </si>
+  <si>
+    <t>ETSE - Escola Técnica Superior de Enxeñería, campus Santiago</t>
+  </si>
+  <si>
+    <t>Non è possibile svolgere attività per tesi.</t>
+  </si>
+  <si>
+    <t>E GRANADA01</t>
+  </si>
+  <si>
+    <t>E.T.S. de Ingenierías Informática y de Telecomunicación</t>
+  </si>
+  <si>
+    <t>Offerta presso la sede disponibile solo a livello bachelor</t>
+  </si>
+  <si>
+    <t>S VAXJO03</t>
+  </si>
+  <si>
+    <t>FTK Fakulteten för Teknik</t>
+  </si>
+  <si>
+    <t>F VALENCI01</t>
+  </si>
+  <si>
+    <t>UNIVERSITE POLYTECHNIQUE HAUTS-DE-FRANCE</t>
+  </si>
+  <si>
+    <t>ENSIAME - Ecole Nationale Supérieure d'Ingénieurs en Informatique, Automatique, Mécanique, Energétique et Electronique</t>
+  </si>
+  <si>
+    <t>E MADRID26</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD REY JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ETSII - Escuela SuperiorTécnica en Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>Presso la sede partner è possibile seguire solo corsi di primo livello (grado).</t>
+  </si>
+  <si>
+    <t>F CERGY-P11</t>
+  </si>
+  <si>
+    <t>CY CERGY PARIS UNIVERSITE</t>
+  </si>
+  <si>
+    <t>CY TECH</t>
+  </si>
+  <si>
+    <t>LUXLUX-VIL01</t>
+  </si>
+  <si>
+    <t>UNIVERSITE' DU LUXEMBOURG</t>
+  </si>
+  <si>
+    <t>Faculty of Science, Technology and Communication</t>
+  </si>
+  <si>
+    <t>E SEVILLA03</t>
+  </si>
+  <si>
+    <t>EPS - Escuela Politécnica Superior</t>
+  </si>
+  <si>
+    <t>E ZARAGOZ01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ZARAGOZA</t>
+  </si>
+  <si>
+    <t>EINA Escuela de Ingeniería y Arquitectura, Campus Rio Ebro</t>
+  </si>
+  <si>
+    <t>CY NICOSIA23</t>
+  </si>
+  <si>
+    <t>FREDERICK UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Faculty of Electrical Eng.</t>
+  </si>
+  <si>
+    <t>D INGOLST01</t>
+  </si>
+  <si>
+    <t>HOCHSCHULE FÜR ANGEWANDTE WISSENSCHAFTEN FH INGOLSTADT</t>
+  </si>
+  <si>
+    <t>Engineering Technology</t>
+  </si>
+  <si>
+    <t>F NANTES80</t>
+  </si>
+  <si>
+    <t>IMT ATLANTIQUE</t>
+  </si>
+  <si>
+    <t>SK BRATISL01</t>
+  </si>
+  <si>
+    <t>SLOVENSKA TECHNICKA UNIVERZITA V BRATISLAVE</t>
+  </si>
+  <si>
+    <t>Faculty of Electrical Engineering and Information technology</t>
+  </si>
+  <si>
+    <t>E VALLADO01</t>
+  </si>
+  <si>
+    <t>Escuela Técnica Superior de Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>F AMIENS18</t>
+  </si>
+  <si>
+    <t>ECOLE SUPERIEURE D'INGENIEURS EN ELECTROTECHNIQUE ET ELECTRONIQUE D'AMIENS</t>
+  </si>
+  <si>
+    <t>Postgraduate solo 1° semestre</t>
+  </si>
+  <si>
+    <t>D BREMEN09</t>
+  </si>
+  <si>
+    <t>CONSTRUCTOR UNIVERSITY</t>
+  </si>
+  <si>
+    <t>F RENNES10</t>
+  </si>
+  <si>
+    <t>INSTITUT NATIONAL DES SCIENCES APPLIQUEES DE RENNES</t>
+  </si>
+  <si>
+    <t>INFO Informatique</t>
+  </si>
+  <si>
+    <t>Scambi a partire dal terzo anno di Laurea Triennale</t>
+  </si>
+  <si>
+    <t>P COIMBRA01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDADE DE COIMBRA</t>
+  </si>
+  <si>
+    <t>FCTUC Faculdade de Ciências e Tecnologia da UC</t>
+  </si>
+  <si>
+    <t>F GRENOBL22</t>
+  </si>
+  <si>
+    <t>INSTITUT POLYTECHNIQUE DE GRENOBLE</t>
+  </si>
+  <si>
+    <t>Esisar</t>
+  </si>
+  <si>
+    <t>Mobilità a partire dal Terzo anno di Laurea Triennale. I corsi di livello master sono erogati solo al primo semestre. E' possibile svolgere attività di tesi solo dopo un primo semestre di corsi. Non è possibile fare solo attività per tesi.</t>
+  </si>
+  <si>
+    <t>E MALAGA01</t>
+  </si>
+  <si>
+    <t>E.T.S.I. Informática</t>
+  </si>
+  <si>
+    <t>E CIUDAR01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE CASTILLA - LA MANCHA</t>
+  </si>
+  <si>
+    <t>Escuela Superior de Ingeniería Informática - campus Albacete</t>
+  </si>
+  <si>
+    <t>HR SPLIT01</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE U SPLITU</t>
+  </si>
+  <si>
+    <t>Fac. of Electrical Eng.,mechanical Eng, and Naval Architecture</t>
+  </si>
+  <si>
+    <t>E LA-CORU01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDADE DA CORUNA</t>
+  </si>
+  <si>
+    <t>Facultad de Informática</t>
+  </si>
+  <si>
+    <t>E LAS-PAL01</t>
+  </si>
+  <si>
+    <t>EITE Escuela de Ingeniería de Telecomunicación y Electrónica</t>
+  </si>
+  <si>
+    <t>E MADRID03</t>
+  </si>
+  <si>
+    <t>FDI Facultad de Informatica</t>
+  </si>
+  <si>
+    <t>G THESSAL01</t>
+  </si>
+  <si>
+    <t>ARISTOTELEIO PANEPISTIMIO THESSALONIKIS</t>
+  </si>
+  <si>
+    <t>Politechnic School</t>
+  </si>
+  <si>
+    <t>F MONTPEL54</t>
+  </si>
+  <si>
+    <t>UNIVERSITE DE MONTPELLIER</t>
+  </si>
+  <si>
+    <t>CZ ZLIN01</t>
+  </si>
+  <si>
+    <t>UNIVERZITA TOMASE BATI VE ZLINE</t>
+  </si>
+  <si>
+    <t>Faculty of Applied Informatics</t>
+  </si>
+  <si>
+    <t>NON E' possibile svolgere lavoro di tesi</t>
+  </si>
+  <si>
+    <t>E OVIEDO01</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE OVIEDO</t>
+  </si>
+  <si>
+    <t>Escuela Politécnica de Ingeniería de Gijón</t>
+  </si>
+  <si>
+    <t>S OREBRO01</t>
+  </si>
+  <si>
+    <t>OREBRO UNIVERSITET</t>
+  </si>
+  <si>
+    <t>G PATRA01</t>
+  </si>
+  <si>
+    <t>PANEPISTIMIO PATRON (UNIVERSITY OF PATRAS)</t>
+  </si>
+  <si>
+    <t>School of Electrical Eng &amp;Computer Engin.</t>
+  </si>
+  <si>
+    <t>E BARCELO02</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT AUTONOMA DE BARCELONA</t>
+  </si>
+  <si>
+    <t>Escola d'Enginyeria/EE</t>
+  </si>
+  <si>
+    <t>EE TALLINN04</t>
+  </si>
+  <si>
+    <t>TALLINNA TEHNIKAULIKOOL</t>
+  </si>
+  <si>
+    <t>School of Engineering</t>
+  </si>
+  <si>
+    <t>D HEIDELB01</t>
+  </si>
+  <si>
+    <t>RUPRECHT KARLS UNIVERSITAT HEIDELBERG</t>
+  </si>
+  <si>
+    <t>Institut fur Informatik</t>
+  </si>
+  <si>
+    <t>F TROYES08</t>
+  </si>
+  <si>
+    <t>UNIVERSITÉ DE TECHNOLOGIE DE TROYES</t>
+  </si>
+  <si>
+    <t>F BORDEAU54</t>
+  </si>
+  <si>
+    <t>INSTITUT POLYTECHNIQUE DE BORDEAUX</t>
+  </si>
+  <si>
+    <t>ENSEIRB-MATMECA</t>
+  </si>
+  <si>
+    <t>Per ingegneria Matematica, lo scambio è più indicato per il track di Calcolo Scientifico</t>
+  </si>
+  <si>
+    <t>E SEVILLA01</t>
+  </si>
+  <si>
+    <t>ETSI Informatica</t>
+  </si>
+  <si>
+    <t>Corsi presso la sede disponibili solo al primo livello</t>
+  </si>
+  <si>
+    <t>HR ZAGREB01</t>
+  </si>
+  <si>
+    <t>SVEUCILISTE U ZAGREBU</t>
+  </si>
+  <si>
+    <t>Fac. of Electrical Eng and Computing</t>
+  </si>
+  <si>
+    <t>PL WARSZAW02</t>
+  </si>
+  <si>
+    <t>D ERLANGE01</t>
+  </si>
+  <si>
+    <t>FRIEDRICH-ALEXANDER-UNIVERSITY OF ERLANGEN-NUREMBERG</t>
+  </si>
+  <si>
+    <t>Dept. of Computer Science</t>
+  </si>
+  <si>
+    <t>E MADRID17</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD ALFONSO X EL SABIO</t>
+  </si>
+  <si>
+    <t>Escuela Politecnica Superior</t>
+  </si>
+  <si>
+    <t>Ensimag</t>
+  </si>
+  <si>
+    <t>Mobilità a partire dal terzo anno di Laurea Triennale. E' possibile svolgere attività di tesi solo dopo un primo semestre di corsi. Non è possibile fare solo attività per tesi.</t>
+  </si>
+  <si>
+    <t>TR ISTANBU17</t>
+  </si>
+  <si>
+    <t>KOC UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>D TUBINGE01</t>
+  </si>
+  <si>
+    <t>EBERHARD-KARLS-UNIVERSITÄT TÜBINGEN</t>
+  </si>
+  <si>
+    <t>Department Computer Science, Cognitive Modeling</t>
+  </si>
+  <si>
+    <t>E BILBAO02</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE DEUSTO</t>
+  </si>
+  <si>
+    <t>E MADRID18</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD EUROPEA DE MADRID</t>
+  </si>
+  <si>
+    <t>EP - Escuela Politecnica</t>
+  </si>
+  <si>
+    <t>E VALENCI02</t>
+  </si>
+  <si>
+    <t>EPSA - Escuela Politécnica Superior de Alcoy</t>
+  </si>
+  <si>
+    <t>SF TAMPERE17</t>
+  </si>
+  <si>
+    <t>TAMPEREEN YLIOPISTO</t>
+  </si>
+  <si>
+    <t>HU BUDAPES02</t>
+  </si>
+  <si>
+    <t>BUDAPESTI MUSZAKI ES GAZDASAGTUDOMANYI EGYETEM</t>
+  </si>
+  <si>
+    <t>E BARCELO03</t>
+  </si>
+  <si>
+    <t>FIB - Facultat d'Informàtica de Barcelona</t>
+  </si>
+  <si>
+    <t>Solo mobilità semestrali</t>
+  </si>
+  <si>
+    <t>F LILLE103</t>
+  </si>
+  <si>
+    <t>UNIVERSITE DE LILLE</t>
+  </si>
+  <si>
+    <t>Polytech Lille</t>
+  </si>
+  <si>
+    <t>E BARCELO15</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT POMPEU FABRA</t>
+  </si>
+  <si>
+    <t>ESP - Escola Superior Politecnica</t>
+  </si>
+  <si>
+    <t>Solo scambi semestrali. I corsi presso la sede sono disponibili solo a livello bachelor.</t>
+  </si>
+  <si>
+    <t>E MADRID05</t>
+  </si>
+  <si>
+    <t>ETS de Ingenieros Informaticos</t>
+  </si>
+  <si>
+    <t>TR ISTANBU04</t>
+  </si>
+  <si>
+    <t>ISTANBUL TEKNIK UNIVERSITESI</t>
+  </si>
+  <si>
+    <t>ETSINF - Escuela Técnica Superior de Ingeniería Informática</t>
+  </si>
+  <si>
+    <t>D BERLIN02</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAT BERLIN</t>
+  </si>
+  <si>
+    <t>Faculty IV</t>
+  </si>
+  <si>
+    <t>Necessario certificato di Inglese almeno a livello B2 entro l' application deadline</t>
+  </si>
+  <si>
+    <t>Escuela de Ingenierías Industriales</t>
+  </si>
+  <si>
+    <t>P LISBOA03</t>
+  </si>
+  <si>
+    <t>FCT Faculdade de Ciências e Tecnologia</t>
+  </si>
+  <si>
+    <t>D MUNCHEN02</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAT MUNCHEN</t>
+  </si>
+  <si>
+    <t>IN Fakultät für Informatik</t>
+  </si>
+  <si>
+    <t>TUM Informatics richiede che lo studente abbia frequentato almeno 2 anni prima dello scambio e sia in possesso dei prerequisiti elencati al seguente sito https://www.in.tum.de/internationales/incoming-exchange-students/courses-for-exchange-students/ -&gt; Academic prerequisites for an exchange stay</t>
+  </si>
+  <si>
+    <t>S VASTERA01</t>
+  </si>
+  <si>
+    <t>MÄLARDALENS HÖGSKOLA</t>
+  </si>
+  <si>
+    <t>MDH-UKK, MDH-IDT, MDH-EST</t>
+  </si>
+  <si>
+    <t>G ATHINE02</t>
+  </si>
+  <si>
+    <t>ETHNIKO METSOVIO POLYTECNIO</t>
+  </si>
+  <si>
+    <t>ETSI Telecomunicación</t>
+  </si>
+  <si>
+    <t>ETSI y Sistemas de Telecomunicacion</t>
+  </si>
+  <si>
+    <t>F PARIS481</t>
+  </si>
+  <si>
+    <t>UNIVERSITE PARIS-SACLAY</t>
+  </si>
+  <si>
+    <t>Polytech Paris-Saclay</t>
+  </si>
+  <si>
+    <t>B LOUVAIN01</t>
+  </si>
+  <si>
+    <t>UNIVERSITE' CATHOLIQUE DE LOUVAIN</t>
+  </si>
+  <si>
+    <t>EPL</t>
+  </si>
+  <si>
+    <t>LV RIGA02</t>
+  </si>
+  <si>
+    <t>RIGAS TEHNISKA UNIVERSITATE</t>
+  </si>
+  <si>
+    <t>A GRAZ02</t>
+  </si>
+  <si>
+    <t>TECHNISCHE UNIVERSITAT GRAZ</t>
+  </si>
+  <si>
+    <t>S LUND01</t>
+  </si>
+  <si>
+    <t>LUNDS UNIVERSITET</t>
+  </si>
+  <si>
+    <t>LTH Lunds Tekniska Högskola</t>
+  </si>
+  <si>
+    <t>ETSEIB - Escola Tècnica Superior d'Enginyeria Industrial de Barcelona</t>
+  </si>
+  <si>
+    <t>IRLGALWAY01</t>
+  </si>
+  <si>
+    <t>College of Science and engineering</t>
+  </si>
+  <si>
+    <t>Scegliere almeno 1 corso dalla School of Engineering</t>
+  </si>
+  <si>
+    <t>EIIC Escuela de Ingenieros Industriales y Civiles</t>
+  </si>
+  <si>
+    <t>D STUTTGA01</t>
+  </si>
+  <si>
+    <t>UNIVERSITAT STUTTGART</t>
+  </si>
+  <si>
+    <t>rapporto</t>
+  </si>
+  <si>
+    <t>BRA SAOPAUL02</t>
+  </si>
+  <si>
+    <t>FUNDACAO ARMANDO ALVARES PENTEADO</t>
+  </si>
+  <si>
+    <t>CH LAUSANN06</t>
+  </si>
+  <si>
+    <t>IC Computer Science</t>
+  </si>
+  <si>
+    <t>CHN HONGKON01</t>
+  </si>
+  <si>
+    <t>Solo un semestre - School of Engineering</t>
+  </si>
+  <si>
+    <t>CHN HONGKON03</t>
+  </si>
+  <si>
+    <t>CHN HONGKON05</t>
+  </si>
+  <si>
+    <t>THE HONG KONG POLYTECHNIC UNIVERSITY</t>
+  </si>
+  <si>
+    <t>KOR SEOUL04</t>
+  </si>
+  <si>
+    <t>HANYANG UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Seoul campus</t>
+  </si>
+  <si>
+    <t>Seoul campus - solo corsi undergraduate</t>
+  </si>
+  <si>
+    <t>UK BRADFOR01</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BRADFORD</t>
+  </si>
+  <si>
+    <t>Faculty of Engineering and Informatics</t>
+  </si>
+  <si>
+    <t>UK NEWCAST02</t>
+  </si>
+  <si>
+    <t>Faculty of Engineering and Environment</t>
+  </si>
+  <si>
+    <t>I corsi undergraduate sono soprattutto annuali. No TESI. I corsi vanno scelti all'interno di un solo Dipartimento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +1150,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +1201,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -538,11 +1292,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD5DFE4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE5EAEF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD5DFE4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE5EAEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE5EAEF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE5EAEF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -573,18 +1368,357 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9EC66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFD5DFE4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -658,13 +1792,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -674,74 +1801,24 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9EC66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3AB1737B-AE5D-428E-9DD3-97B426C7EABE}"/>
     <tableStyle name="Stile tabella 1" pivot="0" count="1" xr9:uid="{58C5260B-747E-4936-8F34-F82861092E31}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -763,7 +1840,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:E35" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}">
     <filterColumn colId="3">
       <filters>
@@ -786,15 +1863,36 @@
     <sortCondition descending="1" ref="B1:B35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="14">
       <calculatedColumnFormula>SUM(B2:C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{ACF6EBFF-BA22-4328-AC9E-5C22F07538A1}" name="POSTI"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:G91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:G91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+    <sortCondition descending="1" ref="G1:G91"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="0" dataCellStyle="Percentuale">
+      <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1101,18 +2199,18 @@
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +2230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +2250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +2264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,10 +2278,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +2298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +2312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +2326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +2346,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1262,7 +2360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1279,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1293,7 +2391,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +2411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +2445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1361,7 +2459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +2473,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1395,7 +2493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +2521,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +2538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +2552,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1468,7 +2566,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +2583,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +2603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +2617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1533,7 +2631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
@@ -1547,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +2662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +2676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +2690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +2704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +2718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1640,7 +2738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +2752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1671,7 +2769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +2783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +2797,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
@@ -1713,7 +2811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +2831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1747,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>35</v>
       </c>
@@ -1761,7 +2859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +2873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
@@ -1789,7 +2887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +2901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +2915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +2929,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>45</v>
       </c>
@@ -1845,7 +2943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
@@ -1859,7 +2957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>53</v>
       </c>
@@ -1873,7 +2971,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>54</v>
       </c>
@@ -1887,7 +2985,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
@@ -1904,7 +3002,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +3016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -1938,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +3050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
@@ -1966,7 +3064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>61</v>
       </c>
@@ -1983,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
@@ -1997,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>64</v>
       </c>
@@ -2011,7 +3109,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +3129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
         <v>45</v>
       </c>
@@ -2045,7 +3143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" s="1" t="s">
         <v>67</v>
       </c>
@@ -2059,7 +3157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -2079,7 +3177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>16</v>
       </c>
@@ -2093,7 +3191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
@@ -2107,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +3219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>30</v>
       </c>
@@ -2135,7 +3233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>57</v>
       </c>
@@ -2149,7 +3247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -2169,7 +3267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>73</v>
       </c>
@@ -2183,7 +3281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
@@ -2197,7 +3295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>74</v>
       </c>
@@ -2214,7 +3312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +3326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>28</v>
       </c>
@@ -2242,7 +3340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +3354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +3368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>75</v>
       </c>
@@ -2287,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>62</v>
       </c>
@@ -2301,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
@@ -2315,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>76</v>
       </c>
@@ -2329,7 +3427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
@@ -2343,7 +3441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C103" s="1" t="s">
         <v>35</v>
       </c>
@@ -2357,7 +3455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +3469,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C105" s="1" t="s">
         <v>78</v>
       </c>
@@ -2385,7 +3483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C106" s="1" t="s">
         <v>51</v>
       </c>
@@ -2399,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C107" s="1" t="s">
         <v>79</v>
       </c>
@@ -2413,7 +3511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C108" s="1" t="s">
         <v>80</v>
       </c>
@@ -2427,7 +3525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C109" s="1" t="s">
         <v>81</v>
       </c>
@@ -2441,7 +3539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
         <v>83</v>
       </c>
@@ -2455,7 +3553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C111" s="1" t="s">
         <v>84</v>
       </c>
@@ -2469,7 +3567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -2489,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C114" s="1" t="s">
         <v>87</v>
       </c>
@@ -2503,7 +3601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" s="1" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +3615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +3629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
@@ -2545,7 +3643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C118" s="1" t="s">
         <v>88</v>
       </c>
@@ -2559,7 +3657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C119" s="1" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +3671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C120" s="1" t="s">
         <v>30</v>
       </c>
@@ -2587,7 +3685,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>90</v>
       </c>
@@ -2604,7 +3702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C123" s="1" t="s">
         <v>7</v>
       </c>
@@ -2618,7 +3716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C124" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,7 +3730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
@@ -2646,7 +3744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C126" s="1" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +3758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C127" s="1" t="s">
         <v>45</v>
       </c>
@@ -2674,7 +3772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C128" s="1" t="s">
         <v>21</v>
       </c>
@@ -2688,7 +3786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C129" s="1" t="s">
         <v>30</v>
       </c>
@@ -2702,7 +3800,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>92</v>
       </c>
@@ -2719,7 +3817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +3831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C133" s="1" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +3845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2761,7 +3859,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>93</v>
       </c>
@@ -2778,7 +3876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C137" s="1" t="s">
         <v>28</v>
       </c>
@@ -2792,7 +3890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C138" s="1" t="s">
         <v>95</v>
       </c>
@@ -2806,7 +3904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C139" s="1" t="s">
         <v>51</v>
       </c>
@@ -2820,7 +3918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C140" s="1" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C141" s="1" t="s">
         <v>97</v>
       </c>
@@ -2848,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C142" s="1" t="s">
         <v>23</v>
       </c>
@@ -2862,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C143" s="1" t="s">
         <v>45</v>
       </c>
@@ -2876,7 +3974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C144" s="1" t="s">
         <v>30</v>
       </c>
@@ -2890,7 +3988,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C145" s="1" t="s">
         <v>101</v>
       </c>
@@ -2904,7 +4002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>102</v>
       </c>
@@ -2921,7 +4019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>104</v>
       </c>
@@ -2938,7 +4036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C150" s="1" t="s">
         <v>45</v>
       </c>
@@ -2952,7 +4050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>105</v>
       </c>
@@ -2969,7 +4067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C153" s="1" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +4081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>106</v>
       </c>
@@ -3000,7 +4098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C156" s="1" t="s">
         <v>28</v>
       </c>
@@ -3014,7 +4112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +4140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C159" s="1" t="s">
         <v>41</v>
       </c>
@@ -3056,7 +4154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C160" s="1" t="s">
         <v>109</v>
       </c>
@@ -3070,7 +4168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
         <v>110</v>
       </c>
@@ -3087,7 +4185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C163" s="1" t="s">
         <v>30</v>
       </c>
@@ -3101,7 +4199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>112</v>
       </c>
@@ -3118,7 +4216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C166" s="1" t="s">
         <v>23</v>
       </c>
@@ -3132,7 +4230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C167" s="1" t="s">
         <v>16</v>
       </c>
@@ -3146,7 +4244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>114</v>
       </c>
@@ -3163,7 +4261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C170" s="1" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +4275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C171" s="1" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +4289,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C172" s="1" t="s">
         <v>9</v>
       </c>
@@ -3205,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C173" s="1" t="s">
         <v>23</v>
       </c>
@@ -3219,7 +4317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>115</v>
       </c>
@@ -3236,7 +4334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
@@ -3250,7 +4348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C177" s="1" t="s">
         <v>35</v>
       </c>
@@ -3264,7 +4362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C178" s="1" t="s">
         <v>28</v>
       </c>
@@ -3278,7 +4376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C179" s="1" t="s">
         <v>8</v>
       </c>
@@ -3292,7 +4390,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C180" s="1" t="s">
         <v>95</v>
       </c>
@@ -3306,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C181" s="1" t="s">
         <v>51</v>
       </c>
@@ -3320,7 +4418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C182" s="1" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +4432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C183" s="1" t="s">
         <v>16</v>
       </c>
@@ -3348,7 +4446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C184" s="1" t="s">
         <v>23</v>
       </c>
@@ -3362,7 +4460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C185" s="1" t="s">
         <v>45</v>
       </c>
@@ -3376,7 +4474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C186" s="1" t="s">
         <v>30</v>
       </c>
@@ -3392,18 +4490,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="IDK">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="IDK">
       <formula>NOT(ISERROR(SEARCH("IDK",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="KO">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="KO">
       <formula>NOT(ISERROR(SEARCH("KO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3416,19 +4514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B81EBD-590F-4BAB-A3CC-89E793A6DEA8}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3441,11 +4539,11 @@
       <c r="D1" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>115</v>
       </c>
@@ -3456,14 +4554,14 @@
         <v>15</v>
       </c>
       <c r="D2" s="11">
-        <f>SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D35" si="0">SUM(B2:C2)</f>
         <v>52</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
@@ -3474,11 +4572,11 @@
         <v>25</v>
       </c>
       <c r="D3" s="11">
-        <f>SUM(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -3489,11 +4587,11 @@
         <v>39</v>
       </c>
       <c r="D4" s="11">
-        <f>SUM(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>75</v>
       </c>
@@ -3504,11 +4602,11 @@
         <v>15</v>
       </c>
       <c r="D5" s="11">
-        <f>SUM(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
@@ -3519,11 +4617,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="11">
-        <f>SUM(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
@@ -3534,11 +4632,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="11">
-        <f>SUM(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>74</v>
       </c>
@@ -3549,11 +4647,11 @@
         <v>10</v>
       </c>
       <c r="D8" s="11">
-        <f>SUM(B8:C8)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -3564,11 +4662,11 @@
         <v>10</v>
       </c>
       <c r="D9" s="11">
-        <f>SUM(B9:C9)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>105</v>
       </c>
@@ -3579,11 +4677,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="11">
-        <f>SUM(B10:C10)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>114</v>
       </c>
@@ -3594,11 +4692,11 @@
         <v>15</v>
       </c>
       <c r="D11" s="11">
-        <f>SUM(B11:C11)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>92</v>
       </c>
@@ -3609,11 +4707,11 @@
         <v>5</v>
       </c>
       <c r="D12" s="11">
-        <f>SUM(B12:C12)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -3624,11 +4722,11 @@
         <v>10</v>
       </c>
       <c r="D13" s="11">
-        <f>SUM(B13:C13)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -3639,11 +4737,11 @@
         <v>10</v>
       </c>
       <c r="D14" s="11">
-        <f>SUM(B14:C14)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -3654,11 +4752,11 @@
         <v>10</v>
       </c>
       <c r="D15" s="11">
-        <f>SUM(B15:C15)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -3669,11 +4767,11 @@
         <v>10</v>
       </c>
       <c r="D16" s="11">
-        <f>SUM(B16:C16)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -3684,11 +4782,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="11">
-        <f>SUM(B17:C17)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
@@ -3699,11 +4797,11 @@
         <v>10</v>
       </c>
       <c r="D18" s="11">
-        <f>SUM(B18:C18)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>60</v>
       </c>
@@ -3714,11 +4812,11 @@
         <v>10</v>
       </c>
       <c r="D19" s="11">
-        <f>SUM(B19:C19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>65</v>
       </c>
@@ -3729,11 +4827,11 @@
         <v>5</v>
       </c>
       <c r="D20" s="11">
-        <f>SUM(B20:C20)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -3744,11 +4842,11 @@
         <v>12</v>
       </c>
       <c r="D21" s="11">
-        <f>SUM(B21:C21)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
@@ -3759,11 +4857,11 @@
         <v>10</v>
       </c>
       <c r="D22" s="11">
-        <f>SUM(B22:C22)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -3774,12 +4872,12 @@
         <v>10</v>
       </c>
       <c r="D23" s="11">
-        <f>SUM(B23:C23)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
@@ -3789,12 +4887,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="11">
-        <f>SUM(B24:C24)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="6">
@@ -3804,12 +4902,12 @@
         <v>5</v>
       </c>
       <c r="D25" s="11">
-        <f>SUM(B25:C25)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="6">
@@ -3819,11 +4917,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="11">
-        <f>SUM(B26:C26)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>93</v>
       </c>
@@ -3834,12 +4932,12 @@
         <v>5</v>
       </c>
       <c r="D27" s="11">
-        <f>SUM(B27:C27)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="6">
@@ -3849,12 +4947,12 @@
         <v>5</v>
       </c>
       <c r="D28" s="11">
-        <f>SUM(B28:C28)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="6">
@@ -3864,12 +4962,12 @@
         <v>5</v>
       </c>
       <c r="D29" s="11">
-        <f>SUM(B29:C29)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="6">
@@ -3879,11 +4977,11 @@
         <v>5</v>
       </c>
       <c r="D30" s="11">
-        <f>SUM(B30:C30)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -3894,11 +4992,11 @@
         <v>0</v>
       </c>
       <c r="D31" s="11">
-        <f>SUM(B31:C31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>104</v>
       </c>
@@ -3909,11 +5007,11 @@
         <v>0</v>
       </c>
       <c r="D32" s="11">
-        <f>SUM(B32:C32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -3924,11 +5022,11 @@
         <v>0</v>
       </c>
       <c r="D33" s="11">
-        <f>SUM(B33:C33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>110</v>
       </c>
@@ -3939,11 +5037,11 @@
         <v>0</v>
       </c>
       <c r="D34" s="11">
-        <f>SUM(B34:C34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>112</v>
       </c>
@@ -3954,13 +5052,13 @@
         <v>5</v>
       </c>
       <c r="D35" s="11">
-        <f>SUM(B35:C35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,4 +5067,2043 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="2"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="25"/>
+    <col min="8" max="16384" width="26.44140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18">
+        <v>2</v>
+      </c>
+      <c r="F2" s="18">
+        <v>3</v>
+      </c>
+      <c r="G2" s="25">
+        <f>E2/F2</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
+        <v>2</v>
+      </c>
+      <c r="F3" s="20">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25">
+        <f>E3/F3</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25">
+        <f>E4/F4</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22">
+        <v>10</v>
+      </c>
+      <c r="G5" s="25">
+        <f>E5/F5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3</v>
+      </c>
+      <c r="G6" s="25">
+        <f>E6/F6</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20">
+        <v>6</v>
+      </c>
+      <c r="G7" s="25">
+        <f>E7/F7</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="22">
+        <v>2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>6</v>
+      </c>
+      <c r="G8" s="25">
+        <f>E8/F8</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20">
+        <v>12</v>
+      </c>
+      <c r="G9" s="25">
+        <f>E9/F9</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="20">
+        <v>15</v>
+      </c>
+      <c r="G10" s="25">
+        <f>E10/F10</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="20">
+        <v>2</v>
+      </c>
+      <c r="F11" s="20">
+        <v>7</v>
+      </c>
+      <c r="G11" s="25">
+        <f>E11/F11</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <v>4</v>
+      </c>
+      <c r="F12" s="20">
+        <v>14</v>
+      </c>
+      <c r="G12" s="25">
+        <f>E12/F12</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>4</v>
+      </c>
+      <c r="G13" s="25">
+        <f>E13/F13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25">
+        <f>E14/F14</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <v>4</v>
+      </c>
+      <c r="G15" s="25">
+        <f>E15/F15</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>8</v>
+      </c>
+      <c r="G16" s="25">
+        <f>E16/F16</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
+        <v>3</v>
+      </c>
+      <c r="F17" s="22">
+        <v>12</v>
+      </c>
+      <c r="G17" s="25">
+        <f>E17/F17</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3</v>
+      </c>
+      <c r="F18" s="22">
+        <v>14</v>
+      </c>
+      <c r="G18" s="25">
+        <f>E18/F18</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>5</v>
+      </c>
+      <c r="G19" s="25">
+        <f>E19/F19</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="25">
+        <f>E20/F20</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
+        <v>5</v>
+      </c>
+      <c r="G21" s="25">
+        <f>E21/F21</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20">
+        <v>10</v>
+      </c>
+      <c r="G22" s="25">
+        <f>E22/F22</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22">
+        <v>10</v>
+      </c>
+      <c r="G23" s="25">
+        <f>E23/F23</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>2</v>
+      </c>
+      <c r="F24" s="20">
+        <v>11</v>
+      </c>
+      <c r="G24" s="25">
+        <f>E24/F24</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22">
+        <v>2</v>
+      </c>
+      <c r="F25" s="22">
+        <v>11</v>
+      </c>
+      <c r="G25" s="25">
+        <f>E25/F25</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>2</v>
+      </c>
+      <c r="F26" s="20">
+        <v>12</v>
+      </c>
+      <c r="G26" s="25">
+        <f>E26/F26</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22">
+        <v>4</v>
+      </c>
+      <c r="F27" s="22">
+        <v>24</v>
+      </c>
+      <c r="G27" s="25">
+        <f>E27/F27</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22">
+        <v>13</v>
+      </c>
+      <c r="G28" s="25">
+        <f>E28/F28</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>7</v>
+      </c>
+      <c r="G29" s="25">
+        <f>E29/F29</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="22">
+        <v>2</v>
+      </c>
+      <c r="F30" s="22">
+        <v>15</v>
+      </c>
+      <c r="G30" s="25">
+        <f>E30/F30</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <v>8</v>
+      </c>
+      <c r="G31" s="25">
+        <f>E31/F31</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
+        <v>16</v>
+      </c>
+      <c r="G32" s="25">
+        <f>E32/F32</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="22">
+        <v>4</v>
+      </c>
+      <c r="F33" s="22">
+        <v>32</v>
+      </c>
+      <c r="G33" s="25">
+        <f>E33/F33</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22">
+        <v>12</v>
+      </c>
+      <c r="F34" s="22">
+        <v>101</v>
+      </c>
+      <c r="G34" s="25">
+        <f>E34/F34</f>
+        <v>0.11881188118811881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22">
+        <v>3</v>
+      </c>
+      <c r="F35" s="22">
+        <v>26</v>
+      </c>
+      <c r="G35" s="25">
+        <f>E35/F35</f>
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22">
+        <v>18</v>
+      </c>
+      <c r="G36" s="25">
+        <f>E36/F36</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20">
+        <v>2</v>
+      </c>
+      <c r="F37" s="20">
+        <v>18</v>
+      </c>
+      <c r="G37" s="25">
+        <f>E37/F37</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
+        <v>5</v>
+      </c>
+      <c r="F38" s="20">
+        <v>46</v>
+      </c>
+      <c r="G38" s="25">
+        <f>E38/F38</f>
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22">
+        <v>2</v>
+      </c>
+      <c r="F39" s="22">
+        <v>19</v>
+      </c>
+      <c r="G39" s="25">
+        <f>E39/F39</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>19</v>
+      </c>
+      <c r="G40" s="25">
+        <f>E40/F40</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22">
+        <v>19</v>
+      </c>
+      <c r="G41" s="25">
+        <f>E41/F41</f>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20">
+        <v>3</v>
+      </c>
+      <c r="F42" s="20">
+        <v>29</v>
+      </c>
+      <c r="G42" s="25">
+        <f>E42/F42</f>
+        <v>0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22">
+        <v>2</v>
+      </c>
+      <c r="F43" s="22">
+        <v>22</v>
+      </c>
+      <c r="G43" s="25">
+        <f>E43/F43</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="20">
+        <v>34</v>
+      </c>
+      <c r="G44" s="25">
+        <f>E44/F44</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22">
+        <v>3</v>
+      </c>
+      <c r="F45" s="22">
+        <v>34</v>
+      </c>
+      <c r="G45" s="25">
+        <f>E45/F45</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="20">
+        <v>23</v>
+      </c>
+      <c r="G46" s="25">
+        <f>E46/F46</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" s="20">
+        <v>6</v>
+      </c>
+      <c r="F47" s="20">
+        <v>71</v>
+      </c>
+      <c r="G47" s="25">
+        <f>E47/F47</f>
+        <v>8.4507042253521125E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
+        <v>2</v>
+      </c>
+      <c r="F48" s="20">
+        <v>24</v>
+      </c>
+      <c r="G48" s="25">
+        <f>E48/F48</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E49" s="20">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20">
+        <v>37</v>
+      </c>
+      <c r="G49" s="25">
+        <f>E49/F49</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20">
+        <v>2</v>
+      </c>
+      <c r="F50" s="20">
+        <v>27</v>
+      </c>
+      <c r="G50" s="25">
+        <f>E50/F50</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20">
+        <v>14</v>
+      </c>
+      <c r="G51" s="25">
+        <f>E51/F51</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20">
+        <v>8</v>
+      </c>
+      <c r="F52" s="20">
+        <v>112</v>
+      </c>
+      <c r="G52" s="25">
+        <f>E52/F52</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22">
+        <v>2</v>
+      </c>
+      <c r="F53" s="22">
+        <v>29</v>
+      </c>
+      <c r="G53" s="25">
+        <f>E53/F53</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20">
+        <v>4</v>
+      </c>
+      <c r="F54" s="20">
+        <v>61</v>
+      </c>
+      <c r="G54" s="25">
+        <f>E54/F54</f>
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22">
+        <v>3</v>
+      </c>
+      <c r="F55" s="22">
+        <v>46</v>
+      </c>
+      <c r="G55" s="25">
+        <f>E55/F55</f>
+        <v>6.5217391304347824E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="20">
+        <v>2</v>
+      </c>
+      <c r="F56" s="20">
+        <v>31</v>
+      </c>
+      <c r="G56" s="25">
+        <f>E56/F56</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20">
+        <v>3</v>
+      </c>
+      <c r="F57" s="20">
+        <v>47</v>
+      </c>
+      <c r="G57" s="25">
+        <f>E57/F57</f>
+        <v>6.3829787234042548E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20">
+        <v>2</v>
+      </c>
+      <c r="F58" s="20">
+        <v>34</v>
+      </c>
+      <c r="G58" s="25">
+        <f>E58/F58</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22">
+        <v>2</v>
+      </c>
+      <c r="F59" s="22">
+        <v>34</v>
+      </c>
+      <c r="G59" s="25">
+        <f>E59/F59</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20">
+        <v>3</v>
+      </c>
+      <c r="F60" s="20">
+        <v>53</v>
+      </c>
+      <c r="G60" s="25">
+        <f>E60/F60</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22">
+        <v>4</v>
+      </c>
+      <c r="F61" s="22">
+        <v>71</v>
+      </c>
+      <c r="G61" s="25">
+        <f>E61/F61</f>
+        <v>5.6338028169014086E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="22">
+        <v>4</v>
+      </c>
+      <c r="F62" s="22">
+        <v>78</v>
+      </c>
+      <c r="G62" s="25">
+        <f>E62/F62</f>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20">
+        <v>1</v>
+      </c>
+      <c r="F63" s="20">
+        <v>20</v>
+      </c>
+      <c r="G63" s="25">
+        <f>E63/F63</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20">
+        <v>2</v>
+      </c>
+      <c r="F64" s="20">
+        <v>40</v>
+      </c>
+      <c r="G64" s="25">
+        <f>E64/F64</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="20">
+        <v>6</v>
+      </c>
+      <c r="F65" s="20">
+        <v>129</v>
+      </c>
+      <c r="G65" s="25">
+        <f>E65/F65</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22">
+        <v>2</v>
+      </c>
+      <c r="F66" s="22">
+        <v>45</v>
+      </c>
+      <c r="G66" s="25">
+        <f>E66/F66</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20">
+        <v>4</v>
+      </c>
+      <c r="F67" s="20">
+        <v>92</v>
+      </c>
+      <c r="G67" s="25">
+        <f>E67/F67</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20">
+        <v>2</v>
+      </c>
+      <c r="F68" s="20">
+        <v>46</v>
+      </c>
+      <c r="G68" s="25">
+        <f>E68/F68</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22">
+        <v>5</v>
+      </c>
+      <c r="F69" s="22">
+        <v>117</v>
+      </c>
+      <c r="G69" s="25">
+        <f>E69/F69</f>
+        <v>4.2735042735042736E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E70" s="22">
+        <v>4</v>
+      </c>
+      <c r="F70" s="22">
+        <v>95</v>
+      </c>
+      <c r="G70" s="25">
+        <f>E70/F70</f>
+        <v>4.2105263157894736E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22">
+        <v>7</v>
+      </c>
+      <c r="F71" s="22">
+        <v>172</v>
+      </c>
+      <c r="G71" s="25">
+        <f>E71/F71</f>
+        <v>4.0697674418604654E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" s="20">
+        <v>3</v>
+      </c>
+      <c r="F72" s="20">
+        <v>74</v>
+      </c>
+      <c r="G72" s="25">
+        <f>E72/F72</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20">
+        <v>4</v>
+      </c>
+      <c r="F73" s="20">
+        <v>100</v>
+      </c>
+      <c r="G73" s="25">
+        <f>E73/F73</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22">
+        <v>1</v>
+      </c>
+      <c r="F74" s="22">
+        <v>27</v>
+      </c>
+      <c r="G74" s="25">
+        <f>E74/F74</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22">
+        <v>3</v>
+      </c>
+      <c r="F75" s="22">
+        <v>81</v>
+      </c>
+      <c r="G75" s="25">
+        <f>E75/F75</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E76" s="20">
+        <v>1</v>
+      </c>
+      <c r="F76" s="20">
+        <v>28</v>
+      </c>
+      <c r="G76" s="25">
+        <f>E76/F76</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22">
+        <v>2</v>
+      </c>
+      <c r="F77" s="22">
+        <v>60</v>
+      </c>
+      <c r="G77" s="25">
+        <f>E77/F77</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22">
+        <v>3</v>
+      </c>
+      <c r="F78" s="22">
+        <v>90</v>
+      </c>
+      <c r="G78" s="25">
+        <f>E78/F78</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22">
+        <v>2</v>
+      </c>
+      <c r="F79" s="22">
+        <v>64</v>
+      </c>
+      <c r="G79" s="25">
+        <f>E79/F79</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" s="20">
+        <v>1</v>
+      </c>
+      <c r="F80" s="20">
+        <v>36</v>
+      </c>
+      <c r="G80" s="25">
+        <f>E80/F80</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E81" s="20">
+        <v>4</v>
+      </c>
+      <c r="F81" s="20">
+        <v>151</v>
+      </c>
+      <c r="G81" s="25">
+        <f>E81/F81</f>
+        <v>2.6490066225165563E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22">
+        <v>4</v>
+      </c>
+      <c r="F82" s="22">
+        <v>164</v>
+      </c>
+      <c r="G82" s="25">
+        <f>E82/F82</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="22">
+        <v>5</v>
+      </c>
+      <c r="F83" s="22">
+        <v>206</v>
+      </c>
+      <c r="G83" s="25">
+        <f>E83/F83</f>
+        <v>2.4271844660194174E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18">
+        <v>3</v>
+      </c>
+      <c r="F84" s="18">
+        <v>130</v>
+      </c>
+      <c r="G84" s="25">
+        <f>E84/F84</f>
+        <v>2.3076923076923078E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20">
+        <v>3</v>
+      </c>
+      <c r="F85" s="20">
+        <v>141</v>
+      </c>
+      <c r="G85" s="25">
+        <f>E85/F85</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20">
+        <v>2</v>
+      </c>
+      <c r="F86" s="20">
+        <v>144</v>
+      </c>
+      <c r="G86" s="25">
+        <f>E86/F86</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20">
+        <v>1</v>
+      </c>
+      <c r="F87" s="20">
+        <v>79</v>
+      </c>
+      <c r="G87" s="25">
+        <f>E87/F87</f>
+        <v>1.2658227848101266E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20">
+        <v>2</v>
+      </c>
+      <c r="F88" s="20">
+        <v>164</v>
+      </c>
+      <c r="G88" s="25">
+        <f>E88/F88</f>
+        <v>1.2195121951219513E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1</v>
+      </c>
+      <c r="F89" s="20">
+        <v>85</v>
+      </c>
+      <c r="G89" s="25">
+        <f>E89/F89</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20">
+        <v>2</v>
+      </c>
+      <c r="F90" s="20">
+        <v>300</v>
+      </c>
+      <c r="G90" s="25">
+        <f>E90/F90</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1</v>
+      </c>
+      <c r="F91" s="20">
+        <v>180</v>
+      </c>
+      <c r="G91" s="25">
+        <f>E91/F91</f>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EB89D0-8FF5-4380-9E9B-A521A6427D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411152F4-F30E-48AB-8C23-4E10B8CDEA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTTI I CORSI" sheetId="1" r:id="rId1"/>
     <sheet name="UNIVERSITA" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
+    <sheet name="rapporti richieste posti" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="366">
   <si>
     <t>UNI</t>
   </si>
@@ -1130,6 +1131,12 @@
   </si>
   <si>
     <t>I corsi undergraduate sono soprattutto annuali. No TESI. I corsi vanno scelti all'interno di un solo Dipartimento.</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>corsi possibili</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1394,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1402,10 +1409,6 @@
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1462,6 +1465,10 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1888,7 +1895,7 @@
     <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="0" dataCellStyle="Percentuale">
+    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="5" dataCellStyle="Percentuale">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4490,18 +4497,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="IDK">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="IDK">
       <formula>NOT(ISERROR(SEARCH("IDK",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="KO">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="KO">
       <formula>NOT(ISERROR(SEARCH("KO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,7 +5065,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5073,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5130,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="25">
-        <f>E2/F2</f>
+        <f t="shared" ref="G2:G33" si="0">E2/F2</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -5150,7 +5157,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="25">
-        <f>E3/F3</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -5172,7 +5179,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="25">
-        <f>E4/F4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -5194,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="25">
-        <f>E5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
@@ -5216,7 +5223,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="25">
-        <f>E6/F6</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5238,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="25">
-        <f>E7/F7</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5262,7 +5269,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="25">
-        <f>E8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5282,7 +5289,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="25">
-        <f>E9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5302,7 +5309,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="25">
-        <f>E10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -5326,7 +5333,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="25">
-        <f>E11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -5346,7 +5353,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="25">
-        <f>E12/F12</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -5370,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="25">
-        <f>E13/F13</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5392,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="25">
-        <f>E14/F14</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5414,7 +5421,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="25">
-        <f>E15/F15</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5436,7 +5443,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="25">
-        <f>E16/F16</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5458,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="25">
-        <f>E17/F17</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -5482,7 +5489,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="25">
-        <f>E18/F18</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
     </row>
@@ -5504,7 +5511,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="25">
-        <f>E19/F19</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5526,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="25">
-        <f>E20/F20</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5548,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="25">
-        <f>E21/F21</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5570,7 +5577,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="25">
-        <f>E22/F22</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5592,7 +5599,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="25">
-        <f>E23/F23</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
@@ -5614,7 +5621,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="25">
-        <f>E24/F24</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
@@ -5636,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="25">
-        <f>E25/F25</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
@@ -5658,7 +5665,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="25">
-        <f>E26/F26</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -5680,7 +5687,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="25">
-        <f>E27/F27</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -5702,7 +5709,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="25">
-        <f>E28/F28</f>
+        <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
     </row>
@@ -5724,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="25">
-        <f>E29/F29</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -5748,7 +5755,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="25">
-        <f>E30/F30</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
     </row>
@@ -5772,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="25">
-        <f>E31/F31</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5794,7 +5801,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="25">
-        <f>E32/F32</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5818,7 +5825,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="25">
-        <f>E33/F33</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
@@ -5838,7 +5845,7 @@
         <v>101</v>
       </c>
       <c r="G34" s="25">
-        <f>E34/F34</f>
+        <f t="shared" ref="G34:G65" si="1">E34/F34</f>
         <v>0.11881188118811881</v>
       </c>
     </row>
@@ -5860,7 +5867,7 @@
         <v>26</v>
       </c>
       <c r="G35" s="25">
-        <f>E35/F35</f>
+        <f t="shared" si="1"/>
         <v>0.11538461538461539</v>
       </c>
     </row>
@@ -5882,7 +5889,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="25">
-        <f>E36/F36</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -5904,7 +5911,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="25">
-        <f>E37/F37</f>
+        <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
@@ -5926,7 +5933,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="25">
-        <f>E38/F38</f>
+        <f t="shared" si="1"/>
         <v>0.10869565217391304</v>
       </c>
     </row>
@@ -5948,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="G39" s="25">
-        <f>E39/F39</f>
+        <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
     </row>
@@ -5972,7 +5979,7 @@
         <v>19</v>
       </c>
       <c r="G40" s="25">
-        <f>E40/F40</f>
+        <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
     </row>
@@ -5994,7 +6001,7 @@
         <v>19</v>
       </c>
       <c r="G41" s="25">
-        <f>E41/F41</f>
+        <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
     </row>
@@ -6016,7 +6023,7 @@
         <v>29</v>
       </c>
       <c r="G42" s="25">
-        <f>E42/F42</f>
+        <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
     </row>
@@ -6038,7 +6045,7 @@
         <v>22</v>
       </c>
       <c r="G43" s="25">
-        <f>E43/F43</f>
+        <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -6060,7 +6067,7 @@
         <v>34</v>
       </c>
       <c r="G44" s="25">
-        <f>E44/F44</f>
+        <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
@@ -6080,7 +6087,7 @@
         <v>34</v>
       </c>
       <c r="G45" s="25">
-        <f>E45/F45</f>
+        <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
@@ -6104,7 +6111,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="25">
-        <f>E46/F46</f>
+        <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
@@ -6128,7 +6135,7 @@
         <v>71</v>
       </c>
       <c r="G47" s="25">
-        <f>E47/F47</f>
+        <f t="shared" si="1"/>
         <v>8.4507042253521125E-2</v>
       </c>
     </row>
@@ -6148,7 +6155,7 @@
         <v>24</v>
       </c>
       <c r="G48" s="25">
-        <f>E48/F48</f>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -6172,7 +6179,7 @@
         <v>37</v>
       </c>
       <c r="G49" s="25">
-        <f>E49/F49</f>
+        <f t="shared" si="1"/>
         <v>8.1081081081081086E-2</v>
       </c>
     </row>
@@ -6194,7 +6201,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="25">
-        <f>E50/F50</f>
+        <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -6216,7 +6223,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="25">
-        <f>E51/F51</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -6238,7 +6245,7 @@
         <v>112</v>
       </c>
       <c r="G52" s="25">
-        <f>E52/F52</f>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -6258,7 +6265,7 @@
         <v>29</v>
       </c>
       <c r="G53" s="25">
-        <f>E53/F53</f>
+        <f t="shared" si="1"/>
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
@@ -6278,7 +6285,7 @@
         <v>61</v>
       </c>
       <c r="G54" s="25">
-        <f>E54/F54</f>
+        <f t="shared" si="1"/>
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
@@ -6298,7 +6305,7 @@
         <v>46</v>
       </c>
       <c r="G55" s="25">
-        <f>E55/F55</f>
+        <f t="shared" si="1"/>
         <v>6.5217391304347824E-2</v>
       </c>
     </row>
@@ -6322,7 +6329,7 @@
         <v>31</v>
       </c>
       <c r="G56" s="25">
-        <f>E56/F56</f>
+        <f t="shared" si="1"/>
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
@@ -6342,7 +6349,7 @@
         <v>47</v>
       </c>
       <c r="G57" s="25">
-        <f>E57/F57</f>
+        <f t="shared" si="1"/>
         <v>6.3829787234042548E-2</v>
       </c>
     </row>
@@ -6364,7 +6371,7 @@
         <v>34</v>
       </c>
       <c r="G58" s="25">
-        <f>E58/F58</f>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -6386,7 +6393,7 @@
         <v>34</v>
       </c>
       <c r="G59" s="25">
-        <f>E59/F59</f>
+        <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -6408,7 +6415,7 @@
         <v>53</v>
       </c>
       <c r="G60" s="25">
-        <f>E60/F60</f>
+        <f t="shared" si="1"/>
         <v>5.6603773584905662E-2</v>
       </c>
     </row>
@@ -6430,7 +6437,7 @@
         <v>71</v>
       </c>
       <c r="G61" s="25">
-        <f>E61/F61</f>
+        <f t="shared" si="1"/>
         <v>5.6338028169014086E-2</v>
       </c>
     </row>
@@ -6454,7 +6461,7 @@
         <v>78</v>
       </c>
       <c r="G62" s="25">
-        <f>E62/F62</f>
+        <f t="shared" si="1"/>
         <v>5.128205128205128E-2</v>
       </c>
     </row>
@@ -6476,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="25">
-        <f>E63/F63</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6496,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="G64" s="25">
-        <f>E64/F64</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6520,7 +6527,7 @@
         <v>129</v>
       </c>
       <c r="G65" s="25">
-        <f>E65/F65</f>
+        <f t="shared" si="1"/>
         <v>4.6511627906976744E-2</v>
       </c>
     </row>
@@ -6540,7 +6547,7 @@
         <v>45</v>
       </c>
       <c r="G66" s="25">
-        <f>E66/F66</f>
+        <f t="shared" ref="G66:G97" si="2">E66/F66</f>
         <v>4.4444444444444446E-2</v>
       </c>
     </row>
@@ -6562,7 +6569,7 @@
         <v>92</v>
       </c>
       <c r="G67" s="25">
-        <f>E67/F67</f>
+        <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -6584,7 +6591,7 @@
         <v>46</v>
       </c>
       <c r="G68" s="25">
-        <f>E68/F68</f>
+        <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -6606,7 +6613,7 @@
         <v>117</v>
       </c>
       <c r="G69" s="25">
-        <f>E69/F69</f>
+        <f t="shared" si="2"/>
         <v>4.2735042735042736E-2</v>
       </c>
     </row>
@@ -6630,7 +6637,7 @@
         <v>95</v>
       </c>
       <c r="G70" s="25">
-        <f>E70/F70</f>
+        <f t="shared" si="2"/>
         <v>4.2105263157894736E-2</v>
       </c>
     </row>
@@ -6652,7 +6659,7 @@
         <v>172</v>
       </c>
       <c r="G71" s="25">
-        <f>E71/F71</f>
+        <f t="shared" si="2"/>
         <v>4.0697674418604654E-2</v>
       </c>
     </row>
@@ -6676,7 +6683,7 @@
         <v>74</v>
       </c>
       <c r="G72" s="25">
-        <f>E72/F72</f>
+        <f t="shared" si="2"/>
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
@@ -6698,7 +6705,7 @@
         <v>100</v>
       </c>
       <c r="G73" s="25">
-        <f>E73/F73</f>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
@@ -6720,7 +6727,7 @@
         <v>27</v>
       </c>
       <c r="G74" s="25">
-        <f>E74/F74</f>
+        <f t="shared" si="2"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
@@ -6742,7 +6749,7 @@
         <v>81</v>
       </c>
       <c r="G75" s="25">
-        <f>E75/F75</f>
+        <f t="shared" si="2"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
@@ -6766,7 +6773,7 @@
         <v>28</v>
       </c>
       <c r="G76" s="25">
-        <f>E76/F76</f>
+        <f t="shared" si="2"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -6788,7 +6795,7 @@
         <v>60</v>
       </c>
       <c r="G77" s="25">
-        <f>E77/F77</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -6810,7 +6817,7 @@
         <v>90</v>
       </c>
       <c r="G78" s="25">
-        <f>E78/F78</f>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -6830,7 +6837,7 @@
         <v>64</v>
       </c>
       <c r="G79" s="25">
-        <f>E79/F79</f>
+        <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -6854,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="G80" s="25">
-        <f>E80/F80</f>
+        <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -6876,7 +6883,7 @@
         <v>151</v>
       </c>
       <c r="G81" s="25">
-        <f>E81/F81</f>
+        <f t="shared" si="2"/>
         <v>2.6490066225165563E-2</v>
       </c>
     </row>
@@ -6896,7 +6903,7 @@
         <v>164</v>
       </c>
       <c r="G82" s="25">
-        <f>E82/F82</f>
+        <f t="shared" si="2"/>
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
@@ -6920,7 +6927,7 @@
         <v>206</v>
       </c>
       <c r="G83" s="25">
-        <f>E83/F83</f>
+        <f t="shared" si="2"/>
         <v>2.4271844660194174E-2</v>
       </c>
     </row>
@@ -6942,7 +6949,7 @@
         <v>130</v>
       </c>
       <c r="G84" s="25">
-        <f>E84/F84</f>
+        <f t="shared" si="2"/>
         <v>2.3076923076923078E-2</v>
       </c>
     </row>
@@ -6964,7 +6971,7 @@
         <v>141</v>
       </c>
       <c r="G85" s="25">
-        <f>E85/F85</f>
+        <f t="shared" si="2"/>
         <v>2.1276595744680851E-2</v>
       </c>
     </row>
@@ -6986,7 +6993,7 @@
         <v>144</v>
       </c>
       <c r="G86" s="25">
-        <f>E86/F86</f>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -7006,7 +7013,7 @@
         <v>79</v>
       </c>
       <c r="G87" s="25">
-        <f>E87/F87</f>
+        <f t="shared" si="2"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
@@ -7028,7 +7035,7 @@
         <v>164</v>
       </c>
       <c r="G88" s="25">
-        <f>E88/F88</f>
+        <f t="shared" si="2"/>
         <v>1.2195121951219513E-2</v>
       </c>
     </row>
@@ -7052,7 +7059,7 @@
         <v>85</v>
       </c>
       <c r="G89" s="25">
-        <f>E89/F89</f>
+        <f t="shared" si="2"/>
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
@@ -7072,7 +7079,7 @@
         <v>300</v>
       </c>
       <c r="G90" s="25">
-        <f>E90/F90</f>
+        <f t="shared" si="2"/>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
@@ -7096,7 +7103,7 @@
         <v>180</v>
       </c>
       <c r="G91" s="25">
-        <f>E91/F91</f>
+        <f t="shared" si="2"/>
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
@@ -7106,4 +7113,36 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E706027-A5A9-4425-A8A6-EF894AC7FD8A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -8,38 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411152F4-F30E-48AB-8C23-4E10B8CDEA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7448CEA-4EF9-470D-B56F-E4B418C1980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTTI I CORSI" sheetId="1" r:id="rId1"/>
     <sheet name="UNIVERSITA" sheetId="2" r:id="rId2"/>
     <sheet name="rapporti richieste posti" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="373">
   <si>
     <t>UNI</t>
   </si>
@@ -1133,17 +1121,38 @@
     <t>I corsi undergraduate sono soprattutto annuali. No TESI. I corsi vanno scelti all'interno di un solo Dipartimento.</t>
   </si>
   <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>corsi possibili</t>
+    <t>esito controllo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NO INFO RILEVANTI, IN ATTESA DI MAIL</t>
+  </si>
+  <si>
+    <t>MOLTI CORSI IN INGLESE INTERESSANTI VERIFICATI IN SEZIONE ERASMUS, RICHIESTO B1/ B2 IN INGLESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CORSI IN INGLESE </t>
+  </si>
+  <si>
+    <t>MOLTI CORSI IN INGLESE INTERESSANTI VERIFICATI IN SEZIONE ERASMUS, RICHIESTO B2 IN INGLESE</t>
+  </si>
+  <si>
+    <t>MOLTI CORSI IN INGLESE INTERESSANTI VERIFICATI IN CORSI PER STUDENTI INTERNAZIONALI, RICHIESTO C1 IN INGLESE</t>
+  </si>
+  <si>
+    <t>INSEGNATI IN SPAGNOLO</t>
+  </si>
+  <si>
+    <t>CORSI IN INGLESE INTERESSANTI (MASTER)</t>
+  </si>
+  <si>
+    <t>CORSI IN INGLESE INTERESSANTI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,13 +1174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +1228,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +1373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,39 +1405,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
     <dxf>
       <border>
         <left style="thin">
@@ -1467,10 +1514,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1481,11 +1524,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1503,8 +1546,56 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1518,11 +1609,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1531,7 +1622,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFE5EAEF"/>
         </left>
@@ -1540,8 +1631,6 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1555,11 +1644,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1568,7 +1657,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFE5EAEF"/>
         </left>
@@ -1577,8 +1666,6 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1592,11 +1679,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1605,7 +1692,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFE5EAEF"/>
         </left>
@@ -1614,8 +1701,6 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1629,11 +1714,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1642,7 +1727,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFE5EAEF"/>
         </left>
@@ -1651,8 +1736,6 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1666,11 +1749,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1679,7 +1762,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFD5DFE4"/>
         </left>
@@ -1688,8 +1771,6 @@
           <color rgb="FFE5EAEF"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1703,11 +1784,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF333333"/>
-        <name val="Verdana"/>
+        <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1718,6 +1799,17 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1825,7 +1917,7 @@
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3AB1737B-AE5D-428E-9DD3-97B426C7EABE}"/>
     <tableStyle name="Stile tabella 1" pivot="0" count="1" xr9:uid="{58C5260B-747E-4936-8F34-F82861092E31}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1847,7 +1939,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:E35" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}">
     <filterColumn colId="3">
       <filters>
@@ -1870,10 +1962,10 @@
     <sortCondition descending="1" ref="B1:B35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="15">
       <calculatedColumnFormula>SUM(B2:C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{ACF6EBFF-BA22-4328-AC9E-5C22F07538A1}" name="POSTI"/>
@@ -1883,21 +1975,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:G91" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:G91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:H91" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
     <sortCondition descending="1" ref="G1:G91"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="5" dataCellStyle="Percentuale">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="6" dataCellStyle="Percentuale">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{9D45C25F-A487-4339-9DAA-1705A923AAE6}" name="esito controllo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2206,18 +2299,18 @@
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2237,7 +2330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2285,10 +2378,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2412,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2353,7 +2446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +2460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +2491,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2418,7 +2511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2452,7 +2545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2466,7 +2559,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
@@ -2480,7 +2573,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2500,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
@@ -2528,7 +2621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +2638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2559,7 +2652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2573,7 +2666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2590,7 +2683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2610,7 +2703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
@@ -2624,7 +2717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2638,7 +2731,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -2669,7 +2762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
@@ -2683,7 +2776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
         <v>9</v>
       </c>
@@ -2697,7 +2790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
@@ -2711,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2725,7 +2818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2745,7 +2838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
@@ -2776,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
@@ -2818,7 +2911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2838,7 +2931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>28</v>
       </c>
@@ -2852,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>35</v>
       </c>
@@ -2866,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>51</v>
       </c>
@@ -2894,7 +2987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +3001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +3015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2936,7 +3029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>45</v>
       </c>
@@ -2950,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2964,7 +3057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>53</v>
       </c>
@@ -2978,7 +3071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>54</v>
       </c>
@@ -2992,7 +3085,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
@@ -3009,7 +3102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3023,7 +3116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -3043,7 +3136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
@@ -3071,7 +3164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>61</v>
       </c>
@@ -3088,7 +3181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" s="1" t="s">
         <v>63</v>
       </c>
@@ -3102,7 +3195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
         <v>64</v>
       </c>
@@ -3116,7 +3209,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
@@ -3136,7 +3229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" s="1" t="s">
         <v>45</v>
       </c>
@@ -3150,7 +3243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>67</v>
       </c>
@@ -3164,7 +3257,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -3184,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" s="1" t="s">
         <v>16</v>
       </c>
@@ -3198,7 +3291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
@@ -3212,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
         <v>23</v>
       </c>
@@ -3226,7 +3319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
         <v>30</v>
       </c>
@@ -3240,7 +3333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" s="1" t="s">
         <v>57</v>
       </c>
@@ -3254,7 +3347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -3274,7 +3367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
         <v>73</v>
       </c>
@@ -3288,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
@@ -3302,7 +3395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>74</v>
       </c>
@@ -3319,7 +3412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" s="1" t="s">
         <v>28</v>
       </c>
@@ -3347,7 +3440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
@@ -3361,7 +3454,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" s="1" t="s">
         <v>16</v>
       </c>
@@ -3375,7 +3468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>75</v>
       </c>
@@ -3392,7 +3485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C99" s="1" t="s">
         <v>62</v>
       </c>
@@ -3406,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C100" s="1" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>76</v>
       </c>
@@ -3434,7 +3527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
         <v>35</v>
       </c>
@@ -3462,7 +3555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
@@ -3476,7 +3569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C105" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,7 +3583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C106" s="1" t="s">
         <v>51</v>
       </c>
@@ -3504,7 +3597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
         <v>79</v>
       </c>
@@ -3518,7 +3611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
         <v>80</v>
       </c>
@@ -3532,7 +3625,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>81</v>
       </c>
@@ -3546,7 +3639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
         <v>83</v>
       </c>
@@ -3560,7 +3653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
         <v>84</v>
       </c>
@@ -3574,7 +3667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3594,7 +3687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C114" s="1" t="s">
         <v>87</v>
       </c>
@@ -3608,7 +3701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" s="1" t="s">
         <v>15</v>
       </c>
@@ -3622,7 +3715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" s="1" t="s">
         <v>28</v>
       </c>
@@ -3650,7 +3743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>88</v>
       </c>
@@ -3664,7 +3757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119" s="1" t="s">
         <v>9</v>
       </c>
@@ -3678,7 +3771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>30</v>
       </c>
@@ -3692,7 +3785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>90</v>
       </c>
@@ -3709,7 +3802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123" s="1" t="s">
         <v>7</v>
       </c>
@@ -3723,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>28</v>
       </c>
@@ -3737,7 +3830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +3844,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,7 +3872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C129" s="1" t="s">
         <v>30</v>
       </c>
@@ -3807,7 +3900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>92</v>
       </c>
@@ -3824,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
@@ -3838,7 +3931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C133" s="1" t="s">
         <v>16</v>
       </c>
@@ -3852,7 +3945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C134" s="1" t="s">
         <v>30</v>
       </c>
@@ -3866,7 +3959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>93</v>
       </c>
@@ -3883,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
         <v>28</v>
       </c>
@@ -3897,7 +3990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>95</v>
       </c>
@@ -3911,7 +4004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C139" s="1" t="s">
         <v>51</v>
       </c>
@@ -3925,7 +4018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C140" s="1" t="s">
         <v>9</v>
       </c>
@@ -3939,7 +4032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C141" s="1" t="s">
         <v>97</v>
       </c>
@@ -3953,7 +4046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>23</v>
       </c>
@@ -3967,7 +4060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C143" s="1" t="s">
         <v>45</v>
       </c>
@@ -3981,7 +4074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C144" s="1" t="s">
         <v>30</v>
       </c>
@@ -3995,7 +4088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C145" s="1" t="s">
         <v>101</v>
       </c>
@@ -4009,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>102</v>
       </c>
@@ -4026,7 +4119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>104</v>
       </c>
@@ -4043,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C150" s="1" t="s">
         <v>45</v>
       </c>
@@ -4057,7 +4150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>105</v>
       </c>
@@ -4074,7 +4167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>106</v>
       </c>
@@ -4105,7 +4198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C156" s="1" t="s">
         <v>28</v>
       </c>
@@ -4119,7 +4212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
@@ -4133,7 +4226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
@@ -4147,7 +4240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
         <v>41</v>
       </c>
@@ -4161,7 +4254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
         <v>109</v>
       </c>
@@ -4175,7 +4268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>110</v>
       </c>
@@ -4192,7 +4285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
         <v>30</v>
       </c>
@@ -4206,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>112</v>
       </c>
@@ -4223,7 +4316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C166" s="1" t="s">
         <v>23</v>
       </c>
@@ -4237,7 +4330,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C167" s="1" t="s">
         <v>16</v>
       </c>
@@ -4251,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>114</v>
       </c>
@@ -4268,7 +4361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C170" s="1" t="s">
         <v>7</v>
       </c>
@@ -4282,7 +4375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C171" s="1" t="s">
         <v>8</v>
       </c>
@@ -4296,7 +4389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C172" s="1" t="s">
         <v>9</v>
       </c>
@@ -4310,7 +4403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C173" s="1" t="s">
         <v>23</v>
       </c>
@@ -4324,7 +4417,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>115</v>
       </c>
@@ -4341,7 +4434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
@@ -4355,7 +4448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="1" t="s">
         <v>35</v>
       </c>
@@ -4369,7 +4462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="1" t="s">
         <v>28</v>
       </c>
@@ -4383,7 +4476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="1" t="s">
         <v>8</v>
       </c>
@@ -4397,7 +4490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="1" t="s">
         <v>95</v>
       </c>
@@ -4411,7 +4504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="1" t="s">
         <v>51</v>
       </c>
@@ -4425,7 +4518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="1" t="s">
         <v>9</v>
       </c>
@@ -4439,7 +4532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="1" t="s">
         <v>16</v>
       </c>
@@ -4453,7 +4546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="1" t="s">
         <v>23</v>
       </c>
@@ -4467,7 +4560,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="1" t="s">
         <v>45</v>
       </c>
@@ -4481,7 +4574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="1" t="s">
         <v>30</v>
       </c>
@@ -4525,15 +4618,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4643,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>115</v>
       </c>
@@ -4568,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
@@ -4583,7 +4676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -4598,7 +4691,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>75</v>
       </c>
@@ -4613,7 +4706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>85</v>
       </c>
@@ -4628,7 +4721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
@@ -4643,7 +4736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>74</v>
       </c>
@@ -4658,7 +4751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -4673,7 +4766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>105</v>
       </c>
@@ -4688,7 +4781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>114</v>
       </c>
@@ -4703,7 +4796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>92</v>
       </c>
@@ -4718,7 +4811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
@@ -4733,7 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -4748,7 +4841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
@@ -4763,7 +4856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
@@ -4778,7 +4871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
@@ -4793,7 +4886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
@@ -4808,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>60</v>
       </c>
@@ -4823,7 +4916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>65</v>
       </c>
@@ -4838,7 +4931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -4853,7 +4946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
@@ -4868,7 +4961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -4883,7 +4976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
@@ -4898,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
@@ -4913,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
@@ -4928,7 +5021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>93</v>
       </c>
@@ -4943,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -4958,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
@@ -4973,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
@@ -4988,7 +5081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -5003,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>104</v>
       </c>
@@ -5018,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -5033,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>110</v>
       </c>
@@ -5048,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>112</v>
       </c>
@@ -5078,2034 +5171,2151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.44140625" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" style="2"/>
-    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="25"/>
-    <col min="8" max="16384" width="26.44140625" style="2"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2"/>
+    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="17"/>
+    <col min="8" max="16384" width="26.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="19" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="H1" s="28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21">
         <v>2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="21">
         <v>3</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="22">
         <f t="shared" ref="G2:G33" si="0">E2/F2</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="H2" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24">
         <v>2</v>
       </c>
-      <c r="F3" s="20">
-        <v>5</v>
-      </c>
-      <c r="G3" s="25">
+      <c r="F3" s="24">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="H3" s="30" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24">
         <v>4</v>
       </c>
-      <c r="F4" s="20">
-        <v>10</v>
-      </c>
-      <c r="G4" s="25">
+      <c r="F4" s="24">
+        <v>10</v>
+      </c>
+      <c r="G4" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="H4" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26">
         <v>4</v>
       </c>
-      <c r="F5" s="22">
-        <v>10</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="F5" s="26">
+        <v>10</v>
+      </c>
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="H5" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
         <v>1</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="24">
         <v>3</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="H6" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="24">
         <v>6</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="H7" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="26">
         <v>2</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="26">
         <v>6</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="H8" s="31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24">
         <v>4</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="24">
         <v>12</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="H9" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>5</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
+        <v>5</v>
+      </c>
+      <c r="F10" s="24">
         <v>15</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="H10" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="24">
         <v>2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="24">
         <v>7</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="H11" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <v>4</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="24">
         <v>14</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="22">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="H12" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="26">
         <v>4</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="H13" s="29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="24">
         <v>4</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="26">
         <v>4</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24">
         <v>2</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="24">
         <v>8</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
         <v>3</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="26">
         <v>12</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="26">
         <v>3</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="26">
         <v>14</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26">
         <v>1</v>
       </c>
-      <c r="F19" s="22">
-        <v>5</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="F19" s="26">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24">
         <v>1</v>
       </c>
-      <c r="F20" s="20">
-        <v>5</v>
-      </c>
-      <c r="G20" s="25">
+      <c r="F20" s="24">
+        <v>5</v>
+      </c>
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26">
         <v>1</v>
       </c>
-      <c r="F21" s="22">
-        <v>5</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="26">
+        <v>5</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
         <v>2</v>
       </c>
-      <c r="F22" s="20">
-        <v>10</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="24">
+        <v>10</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
         <v>2</v>
       </c>
-      <c r="F23" s="22">
-        <v>10</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="F23" s="26">
+        <v>10</v>
+      </c>
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="24">
         <v>11</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="22">
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26">
         <v>2</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="26">
         <v>11</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="24">
         <v>12</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26">
         <v>4</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="26">
         <v>24</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="26">
         <v>2</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="26">
         <v>13</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="22">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26">
         <v>1</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="26">
         <v>7</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="22">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="26">
         <v>2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="26">
         <v>15</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="22">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="26">
         <v>1</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="26">
         <v>8</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="22">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24">
         <v>2</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="24">
         <v>16</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="22">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="26">
         <v>4</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="26">
         <v>32</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="22">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26">
         <v>12</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="26">
         <v>101</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="22">
         <f t="shared" ref="G34:G65" si="1">E34/F34</f>
         <v>0.11881188118811881</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26">
         <v>3</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="26">
         <v>26</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="22">
         <f t="shared" si="1"/>
         <v>0.11538461538461539</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26">
         <v>2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="26">
         <v>18</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="22">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
         <v>2</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="24">
         <v>18</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="22">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <v>5</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24">
+        <v>5</v>
+      </c>
+      <c r="F38" s="24">
         <v>46</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="22">
         <f t="shared" si="1"/>
         <v>0.10869565217391304</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26">
         <v>2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="26">
         <v>19</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="22">
         <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="24">
         <v>2</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="24">
         <v>19</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="22">
         <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26">
         <v>2</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="26">
         <v>19</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="22">
         <f t="shared" si="1"/>
         <v>0.10526315789473684</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24">
         <v>3</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="24">
         <v>29</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="22">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22">
+      <c r="D43" s="26"/>
+      <c r="E43" s="26">
         <v>2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="26">
         <v>22</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="22">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24">
         <v>3</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="24">
         <v>34</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="22">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26">
         <v>3</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="26">
         <v>34</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="22">
         <f t="shared" si="1"/>
         <v>8.8235294117647065E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="24">
         <v>2</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="24">
         <v>23</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="22">
         <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="24">
         <v>6</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="24">
         <v>71</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="22">
         <f t="shared" si="1"/>
         <v>8.4507042253521125E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24">
         <v>2</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="24">
         <v>24</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="22">
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="24">
         <v>3</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="24">
         <v>37</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="22">
         <f t="shared" si="1"/>
         <v>8.1081081081081086E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24">
         <v>2</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="24">
         <v>27</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="22">
         <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24">
         <v>1</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="24">
         <v>14</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="22">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24">
         <v>8</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="24">
         <v>112</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="22">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22">
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26">
         <v>2</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="26">
         <v>29</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="22">
         <f t="shared" si="1"/>
         <v>6.8965517241379309E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20">
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24">
         <v>4</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="24">
         <v>61</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="22">
         <f t="shared" si="1"/>
         <v>6.5573770491803282E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22">
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26">
         <v>3</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="26">
         <v>46</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="22">
         <f t="shared" si="1"/>
         <v>6.5217391304347824E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="24">
         <v>2</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="24">
         <v>31</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="22">
         <f t="shared" si="1"/>
         <v>6.4516129032258063E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24">
         <v>3</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="24">
         <v>47</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="22">
         <f t="shared" si="1"/>
         <v>6.3829787234042548E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24">
         <v>2</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="24">
         <v>34</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="22">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26">
         <v>2</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="26">
         <v>34</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="22">
         <f t="shared" si="1"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20">
+      <c r="D60" s="24"/>
+      <c r="E60" s="24">
         <v>3</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="24">
         <v>53</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="22">
         <f t="shared" si="1"/>
         <v>5.6603773584905662E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22">
+      <c r="D61" s="26"/>
+      <c r="E61" s="26">
         <v>4</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="26">
         <v>71</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="22">
         <f t="shared" si="1"/>
         <v>5.6338028169014086E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="26">
         <v>4</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="26">
         <v>78</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="22">
         <f t="shared" si="1"/>
         <v>5.128205128205128E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20">
+      <c r="D63" s="24"/>
+      <c r="E63" s="24">
         <v>1</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="24">
         <v>20</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="22">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20">
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24">
         <v>2</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="24">
         <v>40</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="22">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="24">
         <v>6</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="24">
         <v>129</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="22">
         <f t="shared" si="1"/>
         <v>4.6511627906976744E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22">
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26">
         <v>2</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="26">
         <v>45</v>
       </c>
-      <c r="G66" s="25">
-        <f t="shared" ref="G66:G97" si="2">E66/F66</f>
+      <c r="G66" s="22">
+        <f t="shared" ref="G66:G91" si="2">E66/F66</f>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24">
         <v>4</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="24">
         <v>92</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="22">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24">
         <v>2</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="24">
         <v>46</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="22">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22">
-        <v>5</v>
-      </c>
-      <c r="F69" s="22">
+      <c r="D69" s="26"/>
+      <c r="E69" s="26">
+        <v>5</v>
+      </c>
+      <c r="F69" s="26">
         <v>117</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="22">
         <f t="shared" si="2"/>
         <v>4.2735042735042736E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+      <c r="H69" s="27"/>
+    </row>
+    <row r="70" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="26">
         <v>4</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="26">
         <v>95</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="22">
         <f t="shared" si="2"/>
         <v>4.2105263157894736E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
+      <c r="H70" s="27"/>
+    </row>
+    <row r="71" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22">
+      <c r="D71" s="26"/>
+      <c r="E71" s="26">
         <v>7</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="26">
         <v>172</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="22">
         <f t="shared" si="2"/>
         <v>4.0697674418604654E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="24">
         <v>3</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="24">
         <v>74</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="22">
         <f t="shared" si="2"/>
         <v>4.0540540540540543E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20">
+      <c r="D73" s="24"/>
+      <c r="E73" s="24">
         <v>4</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="24">
         <v>100</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="22">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22">
+      <c r="D74" s="26"/>
+      <c r="E74" s="26">
         <v>1</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="26">
         <v>27</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="22">
         <f t="shared" si="2"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
+      <c r="H74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22">
+      <c r="D75" s="26"/>
+      <c r="E75" s="26">
         <v>3</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="26">
         <v>81</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="22">
         <f t="shared" si="2"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
+      <c r="H75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="24">
         <v>1</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="24">
         <v>28</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="22">
         <f t="shared" si="2"/>
         <v>3.5714285714285712E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
+      <c r="H76" s="27"/>
+    </row>
+    <row r="77" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22">
+      <c r="D77" s="26"/>
+      <c r="E77" s="26">
         <v>2</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="26">
         <v>60</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="22">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
+      <c r="H77" s="27"/>
+    </row>
+    <row r="78" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26">
         <v>3</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="26">
         <v>90</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="22">
         <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22">
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26">
         <v>2</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="26">
         <v>64</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="22">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="24">
         <v>1</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="24">
         <v>36</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="22">
         <f t="shared" si="2"/>
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
+      <c r="H80" s="27"/>
+    </row>
+    <row r="81" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20" t="s">
+      <c r="C81" s="24"/>
+      <c r="D81" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="24">
         <v>4</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="24">
         <v>151</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="22">
         <f t="shared" si="2"/>
         <v>2.6490066225165563E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
+      <c r="H81" s="27"/>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22">
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26">
         <v>4</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="26">
         <v>164</v>
       </c>
-      <c r="G82" s="25">
+      <c r="G82" s="22">
         <f t="shared" si="2"/>
         <v>2.4390243902439025E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21" t="s">
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E83" s="22">
-        <v>5</v>
-      </c>
-      <c r="F83" s="22">
+      <c r="E83" s="26">
+        <v>5</v>
+      </c>
+      <c r="F83" s="26">
         <v>206</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G83" s="22">
         <f t="shared" si="2"/>
         <v>2.4271844660194174E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17" t="s">
+      <c r="H83" s="27"/>
+    </row>
+    <row r="84" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18">
+      <c r="D84" s="21"/>
+      <c r="E84" s="21">
         <v>3</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="21">
         <v>130</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="22">
         <f t="shared" si="2"/>
         <v>2.3076923076923078E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24">
         <v>3</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="24">
         <v>141</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="22">
         <f t="shared" si="2"/>
         <v>2.1276595744680851E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20">
+      <c r="D86" s="24"/>
+      <c r="E86" s="24">
         <v>2</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="24">
         <v>144</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="22">
         <f t="shared" si="2"/>
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
+      <c r="H86" s="27"/>
+    </row>
+    <row r="87" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20">
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24">
         <v>1</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="24">
         <v>79</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="22">
         <f t="shared" si="2"/>
         <v>1.2658227848101266E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24">
         <v>2</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="24">
         <v>164</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G88" s="22">
         <f t="shared" si="2"/>
         <v>1.2195121951219513E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19" t="s">
+      <c r="H88" s="27"/>
+    </row>
+    <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="24">
         <v>1</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="24">
         <v>85</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="22">
         <f t="shared" si="2"/>
         <v>1.1764705882352941E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19" t="s">
+      <c r="H89" s="27"/>
+    </row>
+    <row r="90" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20">
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24">
         <v>2</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="24">
         <v>300</v>
       </c>
-      <c r="G90" s="25">
+      <c r="G90" s="22">
         <f t="shared" si="2"/>
         <v>6.6666666666666671E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
+      <c r="H90" s="27"/>
+    </row>
+    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B91" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="24">
         <v>1</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="24">
         <v>180</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="22">
         <f t="shared" si="2"/>
         <v>5.5555555555555558E-3</v>
       </c>
+      <c r="H91" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7113,36 +7323,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E706027-A5A9-4425-A8A6-EF894AC7FD8A}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7448CEA-4EF9-470D-B56F-E4B418C1980F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96586D38-11AC-4694-BAE8-C184E35F8B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTTI I CORSI" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="383">
   <si>
     <t>UNI</t>
   </si>
@@ -1124,9 +1124,6 @@
     <t>esito controllo</t>
   </si>
   <si>
-    <t xml:space="preserve"> NO INFO RILEVANTI, IN ATTESA DI MAIL</t>
-  </si>
-  <si>
     <t>MOLTI CORSI IN INGLESE INTERESSANTI VERIFICATI IN SEZIONE ERASMUS, RICHIESTO B1/ B2 IN INGLESE</t>
   </si>
   <si>
@@ -1146,6 +1143,39 @@
   </si>
   <si>
     <t>CORSI IN INGLESE INTERESSANTI</t>
+  </si>
+  <si>
+    <t>POCHI CORSI IN INGLESE E ING BIOM</t>
+  </si>
+  <si>
+    <t>TUTTI I PROGRAMMI SCRITTI IN RUMENO</t>
+  </si>
+  <si>
+    <t>TUTTO IN FRANCESE</t>
+  </si>
+  <si>
+    <t>TUTTI I PROGRAMMI IN SLOVACCO</t>
+  </si>
+  <si>
+    <t>CI SONO CORSI IN INGLESE (FORSE UN PO' A CASO)</t>
+  </si>
+  <si>
+    <t>NO INFO RILEVANTI NEL SITO</t>
+  </si>
+  <si>
+    <t>CORSI IN FRANCESE</t>
+  </si>
+  <si>
+    <t>VARI CORSI IN INGLESE INTERESSANTI</t>
+  </si>
+  <si>
+    <t>NON SI CAPISCE NULLA DEL SITO</t>
+  </si>
+  <si>
+    <t>POCHI CORSI IN INGLESE</t>
+  </si>
+  <si>
+    <t>TUTTI  I CORSI IN INGLESE</t>
   </si>
 </sst>
 </file>
@@ -5173,14 +5203,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="2"/>
     <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
@@ -5237,7 +5267,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,7 +5290,7 @@
         <v>0.4</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5315,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5310,7 +5340,7 @@
         <v>0.4</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -5335,7 +5365,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5360,7 +5390,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5387,7 +5417,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5410,7 +5440,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5463,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5460,7 +5490,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -5483,7 +5513,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5510,10 +5540,10 @@
         <v>0.25</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>137</v>
       </c>
@@ -5534,9 +5564,11 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>140</v>
       </c>
@@ -5557,7 +5589,9 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H15" s="27"/>
+      <c r="H15" s="31" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
@@ -5580,7 +5614,9 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="31" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -5603,7 +5639,9 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="31" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -5628,7 +5666,9 @@
         <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="30" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -5651,7 +5691,9 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="29" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
@@ -5674,7 +5716,9 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="31" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -5697,7 +5741,9 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H21" s="27"/>
+      <c r="H21" s="29" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
@@ -5720,9 +5766,11 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>181</v>
       </c>
@@ -5743,7 +5791,9 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="27"/>
+      <c r="H23" s="31" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -5766,7 +5816,9 @@
         <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="H24" s="27"/>
+      <c r="H24" s="29" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -6924,7 +6976,7 @@
       </c>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>285</v>
       </c>
@@ -6947,7 +6999,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>361</v>
       </c>
@@ -6972,7 +7024,7 @@
       </c>
       <c r="H76" s="27"/>
     </row>
-    <row r="77" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>285</v>
       </c>

--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96586D38-11AC-4694-BAE8-C184E35F8B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B9BCEB-E68C-4146-AD8A-1B36F44D8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="384">
   <si>
     <t>UNI</t>
   </si>
@@ -1176,6 +1176,9 @@
   </si>
   <si>
     <t>TUTTI  I CORSI IN INGLESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1488,15 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1947,7 +1958,7 @@
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3AB1737B-AE5D-428E-9DD3-97B426C7EABE}"/>
     <tableStyle name="Stile tabella 1" pivot="0" count="1" xr9:uid="{58C5260B-747E-4936-8F34-F82861092E31}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1969,7 +1980,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A1:E35" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}">
     <filterColumn colId="3">
       <filters>
@@ -1992,10 +2003,10 @@
     <sortCondition descending="1" ref="B1:B35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="16">
       <calculatedColumnFormula>SUM(B2:C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{ACF6EBFF-BA22-4328-AC9E-5C22F07538A1}" name="POSTI"/>
@@ -2005,22 +2016,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:H91" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:H91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:H91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}">
+    <filterColumn colId="7">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
     <sortCondition descending="1" ref="G1:G91"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="6" dataCellStyle="Percentuale">
+    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="7" dataCellStyle="Percentuale">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9D45C25F-A487-4339-9DAA-1705A923AAE6}" name="esito controllo" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{9D45C25F-A487-4339-9DAA-1705A923AAE6}" name="esito controllo" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4620,18 +4635,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="IDK">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="IDK">
       <formula>NOT(ISERROR(SEARCH("IDK",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="KO">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="KO">
       <formula>NOT(ISERROR(SEARCH("KO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5188,7 +5203,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5201,15 +5216,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="2"/>
@@ -5270,77 +5285,77 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24">
-        <v>2</v>
-      </c>
-      <c r="F3" s="24">
-        <v>5</v>
+    <row r="3" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>10</v>
       </c>
       <c r="G3" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>175</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26">
+      <c r="H4" s="30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
         <v>4</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>10</v>
       </c>
       <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>367</v>
+      <c r="H5" s="31" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -5368,7 +5383,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>154</v>
       </c>
@@ -5393,7 +5408,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>157</v>
       </c>
@@ -5420,7 +5435,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>190</v>
       </c>
@@ -5439,11 +5454,11 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>345</v>
       </c>
@@ -5468,52 +5483,52 @@
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>163</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="24">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="E12" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>371</v>
+      <c r="H12" s="31" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5543,7 +5558,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>137</v>
       </c>
@@ -5568,7 +5583,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>140</v>
       </c>
@@ -5593,7 +5608,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>166</v>
       </c>
@@ -5618,7 +5633,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>192</v>
       </c>
@@ -5643,7 +5658,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>202</v>
       </c>
@@ -5696,56 +5711,56 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24">
+      <c r="A20" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26">
         <v>1</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="26">
         <v>5</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26">
+      <c r="H20" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24">
         <v>1</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>5</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>179</v>
       </c>
@@ -5770,7 +5785,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>181</v>
       </c>
@@ -5820,7 +5835,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>187</v>
       </c>
@@ -5843,7 +5858,7 @@
       </c>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>195</v>
       </c>
@@ -5866,7 +5881,7 @@
       </c>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>237</v>
       </c>
@@ -5889,7 +5904,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>197</v>
       </c>
@@ -5912,7 +5927,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>164</v>
       </c>
@@ -5935,7 +5950,7 @@
       </c>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>209</v>
       </c>
@@ -5960,7 +5975,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>169</v>
       </c>
@@ -5985,7 +6000,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>213</v>
       </c>
@@ -6008,7 +6023,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>260</v>
       </c>
@@ -6033,7 +6048,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>320</v>
       </c>
@@ -6054,7 +6069,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>242</v>
       </c>
@@ -6077,7 +6092,7 @@
       </c>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>215</v>
       </c>
@@ -6100,7 +6115,7 @@
       </c>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>218</v>
       </c>
@@ -6123,7 +6138,7 @@
       </c>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>277</v>
       </c>
@@ -6146,7 +6161,7 @@
       </c>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>221</v>
       </c>
@@ -6169,7 +6184,7 @@
       </c>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>224</v>
       </c>
@@ -6194,7 +6209,7 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>226</v>
       </c>
@@ -6217,7 +6232,7 @@
       </c>
       <c r="H41" s="27"/>
     </row>
-    <row r="42" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>251</v>
       </c>
@@ -6240,7 +6255,7 @@
       </c>
       <c r="H42" s="27"/>
     </row>
-    <row r="43" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>231</v>
       </c>
@@ -6263,7 +6278,7 @@
       </c>
       <c r="H43" s="27"/>
     </row>
-    <row r="44" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>263</v>
       </c>
@@ -6286,7 +6301,7 @@
       </c>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>266</v>
       </c>
@@ -6307,7 +6322,7 @@
       </c>
       <c r="H45" s="27"/>
     </row>
-    <row r="46" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>233</v>
       </c>
@@ -6332,7 +6347,7 @@
       </c>
       <c r="H46" s="27"/>
     </row>
-    <row r="47" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>291</v>
       </c>
@@ -6357,7 +6372,7 @@
       </c>
       <c r="H47" s="27"/>
     </row>
-    <row r="48" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>240</v>
       </c>
@@ -6378,7 +6393,7 @@
       </c>
       <c r="H48" s="27"/>
     </row>
-    <row r="49" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>209</v>
       </c>
@@ -6403,7 +6418,7 @@
       </c>
       <c r="H49" s="27"/>
     </row>
-    <row r="50" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>245</v>
       </c>
@@ -6426,7 +6441,7 @@
       </c>
       <c r="H50" s="27"/>
     </row>
-    <row r="51" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>206</v>
       </c>
@@ -6449,7 +6464,7 @@
       </c>
       <c r="H51" s="27"/>
     </row>
-    <row r="52" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>301</v>
       </c>
@@ -6472,7 +6487,7 @@
       </c>
       <c r="H52" s="27"/>
     </row>
-    <row r="53" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>254</v>
       </c>
@@ -6493,7 +6508,7 @@
       </c>
       <c r="H53" s="27"/>
     </row>
-    <row r="54" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>287</v>
       </c>
@@ -6514,7 +6529,7 @@
       </c>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>280</v>
       </c>
@@ -6535,7 +6550,7 @@
       </c>
       <c r="H55" s="27"/>
     </row>
-    <row r="56" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>256</v>
       </c>
@@ -6560,7 +6575,7 @@
       </c>
       <c r="H56" s="27"/>
     </row>
-    <row r="57" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>351</v>
       </c>
@@ -6581,7 +6596,7 @@
       </c>
       <c r="H57" s="27"/>
     </row>
-    <row r="58" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>267</v>
       </c>
@@ -6604,7 +6619,7 @@
       </c>
       <c r="H58" s="27"/>
     </row>
-    <row r="59" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>270</v>
       </c>
@@ -6627,7 +6642,7 @@
       </c>
       <c r="H59" s="27"/>
     </row>
-    <row r="60" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>282</v>
       </c>
@@ -6650,7 +6665,7 @@
       </c>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>294</v>
       </c>
@@ -6673,7 +6688,7 @@
       </c>
       <c r="H61" s="27"/>
     </row>
-    <row r="62" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>301</v>
       </c>
@@ -6698,7 +6713,7 @@
       </c>
       <c r="H62" s="27"/>
     </row>
-    <row r="63" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>228</v>
       </c>
@@ -6721,7 +6736,7 @@
       </c>
       <c r="H63" s="27"/>
     </row>
-    <row r="64" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>352</v>
       </c>
@@ -6742,7 +6757,7 @@
       </c>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>324</v>
       </c>
@@ -6767,7 +6782,7 @@
       </c>
       <c r="H65" s="27"/>
     </row>
-    <row r="66" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>275</v>
       </c>
@@ -6783,12 +6798,12 @@
         <v>45</v>
       </c>
       <c r="G66" s="22">
-        <f t="shared" ref="G66:G91" si="2">E66/F66</f>
+        <f t="shared" ref="G66:G97" si="2">E66/F66</f>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="H66" s="27"/>
     </row>
-    <row r="67" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>311</v>
       </c>
@@ -6811,7 +6826,7 @@
       </c>
       <c r="H67" s="27"/>
     </row>
-    <row r="68" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>358</v>
       </c>
@@ -6834,7 +6849,7 @@
       </c>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>301</v>
       </c>
@@ -6857,7 +6872,7 @@
       </c>
       <c r="H69" s="27"/>
     </row>
-    <row r="70" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>313</v>
       </c>
@@ -6882,7 +6897,7 @@
       </c>
       <c r="H70" s="27"/>
     </row>
-    <row r="71" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>291</v>
       </c>
@@ -6905,7 +6920,7 @@
       </c>
       <c r="H71" s="27"/>
     </row>
-    <row r="72" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>297</v>
       </c>
@@ -6930,7 +6945,7 @@
       </c>
       <c r="H72" s="27"/>
     </row>
-    <row r="73" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>317</v>
       </c>
@@ -6953,7 +6968,7 @@
       </c>
       <c r="H73" s="27"/>
     </row>
-    <row r="74" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>248</v>
       </c>
@@ -6976,7 +6991,7 @@
       </c>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>285</v>
       </c>
@@ -6999,7 +7014,7 @@
       </c>
       <c r="H75" s="27"/>
     </row>
-    <row r="76" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>361</v>
       </c>
@@ -7024,7 +7039,7 @@
       </c>
       <c r="H76" s="27"/>
     </row>
-    <row r="77" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>285</v>
       </c>
@@ -7047,7 +7062,7 @@
       </c>
       <c r="H77" s="27"/>
     </row>
-    <row r="78" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>213</v>
       </c>
@@ -7070,7 +7085,7 @@
       </c>
       <c r="H78" s="27"/>
     </row>
-    <row r="79" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>289</v>
       </c>
@@ -7091,7 +7106,7 @@
       </c>
       <c r="H79" s="27"/>
     </row>
-    <row r="80" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>354</v>
       </c>
@@ -7116,7 +7131,7 @@
       </c>
       <c r="H80" s="27"/>
     </row>
-    <row r="81" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>349</v>
       </c>
@@ -7139,7 +7154,7 @@
       </c>
       <c r="H81" s="27"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>332</v>
       </c>
@@ -7160,7 +7175,7 @@
       </c>
       <c r="H82" s="27"/>
     </row>
-    <row r="83" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>224</v>
       </c>
@@ -7185,7 +7200,7 @@
       </c>
       <c r="H83" s="27"/>
     </row>
-    <row r="84" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>327</v>
       </c>
@@ -7208,7 +7223,7 @@
       </c>
       <c r="H84" s="27"/>
     </row>
-    <row r="85" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>347</v>
       </c>
@@ -7231,7 +7246,7 @@
       </c>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>330</v>
       </c>
@@ -7254,7 +7269,7 @@
       </c>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>303</v>
       </c>
@@ -7275,7 +7290,7 @@
       </c>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>334</v>
       </c>
@@ -7298,7 +7313,7 @@
       </c>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>306</v>
       </c>
@@ -7323,7 +7338,7 @@
       </c>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>342</v>
       </c>
@@ -7344,7 +7359,7 @@
       </c>
       <c r="H90" s="27"/>
     </row>
-    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>338</v>
       </c>
@@ -7368,6 +7383,11 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="H91" s="27"/>
+    </row>
+    <row r="94" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>383</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra/POSSIBILI UNI PER ERASMUS.xlsx
+++ b/extra/POSSIBILI UNI PER ERASMUS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B9BCEB-E68C-4146-AD8A-1B36F44D8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60791702-5058-48AD-9D1E-F021C8455A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F68F9FDF-9B77-4370-99AD-20B158563E45}"/>
   </bookViews>
   <sheets>
     <sheet name="TUTTI I CORSI" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="392">
   <si>
     <t>UNI</t>
   </si>
@@ -1179,6 +1179,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>in lista</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>SI CIRCA</t>
+  </si>
+  <si>
+    <t>si circa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI CIRCA (ultima finora) rivedere </t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1483,17 +1507,76 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1552,6 +1635,41 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5EAEF"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFE5EAEF"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1815,6 +1933,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1958,7 +2084,7 @@
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3AB1737B-AE5D-428E-9DD3-97B426C7EABE}"/>
     <tableStyle name="Stile tabella 1" pivot="0" count="1" xr9:uid="{58C5260B-747E-4936-8F34-F82861092E31}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1980,7 +2106,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}" name="Tabella1" displayName="Tabella1" ref="A1:E35" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="A1:E35" xr:uid="{7A2B8D22-03AC-4A0D-8ADB-F05C0671D6E9}">
     <filterColumn colId="3">
       <filters>
@@ -2003,10 +2129,10 @@
     <sortCondition descending="1" ref="B1:B35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{5540347C-6B15-4327-8EDE-1678D98847FF}" name="UNI" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{3CBFBE6D-616C-4A1E-9263-F8704FFB844B}" name="CREDITI OK" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{238C71E2-371D-45B2-85A8-40B9A4A3BEE6}" name="CREDITI IDK" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{BF482025-BF83-4F60-87AC-A65BFF144610}" name="CREDITI OK + IDK" dataDxfId="22">
       <calculatedColumnFormula>SUM(B2:C2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{ACF6EBFF-BA22-4328-AC9E-5C22F07538A1}" name="POSTI"/>
@@ -2016,26 +2142,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:H91" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:H91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}" name="Tabella3" displayName="Tabella3" ref="A1:J91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:J91" xr:uid="{4F526BFF-E58F-4150-9348-5F6184A80886}">
     <filterColumn colId="7">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="19"/>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H91">
     <sortCondition descending="1" ref="G1:G91"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="7" dataCellStyle="Percentuale">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{FB7EDB6B-A938-44B1-87FA-7B22971E8EDA}" name="Codice Ateneo" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{1D693904-57AB-4A81-BFA5-C2366BC0752D}" name="Nome Ateneo" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{BF004504-1CD4-4FC2-B321-4EC27CD6190B}" name="Struttura ospitante" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{F7D3BC16-7959-4617-9DDC-8866B07849B1}" name="Note" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D65C89CA-B245-48D2-B3CE-C79EA9B8BCF6}" name="Posti Disponibili" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{4E1B0D5C-BF71-4D73-A728-0C7897F3AA2F}" name="Candidature Bandi precedente a.a." dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{441EE02A-3AE6-4428-9C5F-B88EC916A99F}" name="rapporto" dataDxfId="12" dataCellStyle="Percentuale">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9D45C25F-A487-4339-9DAA-1705A923AAE6}" name="esito controllo" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{9D45C25F-A487-4339-9DAA-1705A923AAE6}" name="esito controllo" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{646175CE-1647-4B6D-86D7-A9F7EF6625AE}" name="in lista" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{A64263EC-0038-4DE9-975E-D2ABD26528DC}" name="Colonna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4635,18 +4763,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="IDK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="IDK">
       <formula>NOT(ISERROR(SEARCH("IDK",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="KO">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="KO">
       <formula>NOT(ISERROR(SEARCH("KO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5203,7 +5331,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5216,10 +5344,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF90E40B-6F5B-46FE-A78E-7EB9B5156B53}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5227,14 +5355,16 @@
     <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2"/>
-    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="17"/>
-    <col min="8" max="16384" width="26.42578125" style="2"/>
+    <col min="7" max="7" width="10.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="2"/>
+    <col min="9" max="9" width="8.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="26.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>123</v>
       </c>
@@ -5259,8 +5389,14 @@
       <c r="H1" s="28" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>129</v>
       </c>
@@ -5284,8 +5420,12 @@
       <c r="H2" s="29" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>176</v>
       </c>
@@ -5309,8 +5449,12 @@
       <c r="H3" s="29" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>143</v>
       </c>
@@ -5332,8 +5476,10 @@
       <c r="H4" s="30" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>173</v>
       </c>
@@ -5357,8 +5503,10 @@
       <c r="H5" s="31" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>132</v>
       </c>
@@ -5382,8 +5530,12 @@
       <c r="H6" s="29" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>154</v>
       </c>
@@ -5407,8 +5559,10 @@
       <c r="H7" s="31" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>157</v>
       </c>
@@ -5434,8 +5588,10 @@
       <c r="H8" s="31" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>190</v>
       </c>
@@ -5457,8 +5613,10 @@
       <c r="H9" s="30" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>345</v>
       </c>
@@ -5480,8 +5638,10 @@
       <c r="H10" s="31" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>200</v>
       </c>
@@ -5503,8 +5663,12 @@
       <c r="H11" s="29" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>161</v>
       </c>
@@ -5530,8 +5694,10 @@
       <c r="H12" s="31" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>134</v>
       </c>
@@ -5557,8 +5723,12 @@
       <c r="H13" s="29" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>137</v>
       </c>
@@ -5582,8 +5752,10 @@
       <c r="H14" s="31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>140</v>
       </c>
@@ -5607,8 +5779,10 @@
       <c r="H15" s="31" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>166</v>
       </c>
@@ -5632,8 +5806,10 @@
       <c r="H16" s="31" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>192</v>
       </c>
@@ -5657,8 +5833,10 @@
       <c r="H17" s="31" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>202</v>
       </c>
@@ -5684,8 +5862,10 @@
       <c r="H18" s="30" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>145</v>
       </c>
@@ -5709,8 +5889,14 @@
       <c r="H19" s="29" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>151</v>
       </c>
@@ -5734,8 +5920,12 @@
       <c r="H20" s="29" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>148</v>
       </c>
@@ -5759,8 +5949,10 @@
       <c r="H21" s="31" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>179</v>
       </c>
@@ -5784,8 +5976,10 @@
       <c r="H22" s="31" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>181</v>
       </c>
@@ -5809,8 +6003,10 @@
       <c r="H23" s="31" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>184</v>
       </c>
@@ -5834,8 +6030,14 @@
       <c r="H24" s="29" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>187</v>
       </c>
@@ -5857,8 +6059,10 @@
         <v>0.18181818181818182</v>
       </c>
       <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>195</v>
       </c>
@@ -5880,8 +6084,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>237</v>
       </c>
@@ -5903,8 +6109,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="1:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>197</v>
       </c>
@@ -5926,8 +6134,10 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>164</v>
       </c>
@@ -5949,8 +6159,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>209</v>
       </c>
@@ -5974,8 +6186,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" spans="1:10" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>169</v>
       </c>
@@ -5999,8 +6213,10 @@
         <v>0.125</v>
       </c>
       <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>213</v>
       </c>
@@ -6022,8 +6238,10 @@
         <v>0.125</v>
       </c>
       <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>260</v>
       </c>
@@ -6047,8 +6265,10 @@
         <v>0.125</v>
       </c>
       <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>320</v>
       </c>
@@ -6068,8 +6288,10 @@
         <v>0.11881188118811881</v>
       </c>
       <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:10" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>242</v>
       </c>
@@ -6091,8 +6313,10 @@
         <v>0.11538461538461539</v>
       </c>
       <c r="H35" s="27"/>
-    </row>
-    <row r="36" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>215</v>
       </c>
@@ -6114,8 +6338,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>218</v>
       </c>
@@ -6137,8 +6363,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>277</v>
       </c>
@@ -6160,8 +6388,10 @@
         <v>0.10869565217391304</v>
       </c>
       <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+    </row>
+    <row r="39" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>221</v>
       </c>
@@ -6183,8 +6413,10 @@
         <v>0.10526315789473684</v>
       </c>
       <c r="H39" s="27"/>
-    </row>
-    <row r="40" spans="1:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>224</v>
       </c>
@@ -6208,8 +6440,10 @@
         <v>0.10526315789473684</v>
       </c>
       <c r="H40" s="27"/>
-    </row>
-    <row r="41" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>226</v>
       </c>
@@ -6231,8 +6465,10 @@
         <v>0.10526315789473684</v>
       </c>
       <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>251</v>
       </c>
@@ -6254,8 +6490,10 @@
         <v>0.10344827586206896</v>
       </c>
       <c r="H42" s="27"/>
-    </row>
-    <row r="43" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>231</v>
       </c>
@@ -6277,8 +6515,10 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="H43" s="27"/>
-    </row>
-    <row r="44" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>263</v>
       </c>
@@ -6300,8 +6540,10 @@
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>266</v>
       </c>
@@ -6321,8 +6563,10 @@
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="H45" s="27"/>
-    </row>
-    <row r="46" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>233</v>
       </c>
@@ -6346,8 +6590,10 @@
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="H46" s="27"/>
-    </row>
-    <row r="47" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>291</v>
       </c>
@@ -6371,8 +6617,10 @@
         <v>8.4507042253521125E-2</v>
       </c>
       <c r="H47" s="27"/>
-    </row>
-    <row r="48" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>240</v>
       </c>
@@ -6392,8 +6640,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H48" s="27"/>
-    </row>
-    <row r="49" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+    </row>
+    <row r="49" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>209</v>
       </c>
@@ -6417,8 +6667,10 @@
         <v>8.1081081081081086E-2</v>
       </c>
       <c r="H49" s="27"/>
-    </row>
-    <row r="50" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>245</v>
       </c>
@@ -6440,8 +6692,10 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+    </row>
+    <row r="51" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>206</v>
       </c>
@@ -6463,8 +6717,10 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H51" s="27"/>
-    </row>
-    <row r="52" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>301</v>
       </c>
@@ -6486,8 +6742,10 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+    </row>
+    <row r="53" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>254</v>
       </c>
@@ -6507,8 +6765,10 @@
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="H53" s="27"/>
-    </row>
-    <row r="54" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>287</v>
       </c>
@@ -6528,8 +6788,10 @@
         <v>6.5573770491803282E-2</v>
       </c>
       <c r="H54" s="27"/>
-    </row>
-    <row r="55" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>280</v>
       </c>
@@ -6549,8 +6811,10 @@
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="H55" s="27"/>
-    </row>
-    <row r="56" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>256</v>
       </c>
@@ -6574,8 +6838,10 @@
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>351</v>
       </c>
@@ -6595,8 +6861,10 @@
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="H57" s="27"/>
-    </row>
-    <row r="58" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>267</v>
       </c>
@@ -6618,8 +6886,10 @@
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>270</v>
       </c>
@@ -6641,8 +6911,10 @@
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="H59" s="27"/>
-    </row>
-    <row r="60" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>282</v>
       </c>
@@ -6664,8 +6936,10 @@
         <v>5.6603773584905662E-2</v>
       </c>
       <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="61" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>294</v>
       </c>
@@ -6687,8 +6961,10 @@
         <v>5.6338028169014086E-2</v>
       </c>
       <c r="H61" s="27"/>
-    </row>
-    <row r="62" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>301</v>
       </c>
@@ -6712,8 +6988,10 @@
         <v>5.128205128205128E-2</v>
       </c>
       <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>228</v>
       </c>
@@ -6735,8 +7013,10 @@
         <v>0.05</v>
       </c>
       <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>352</v>
       </c>
@@ -6756,8 +7036,10 @@
         <v>0.05</v>
       </c>
       <c r="H64" s="27"/>
-    </row>
-    <row r="65" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>324</v>
       </c>
@@ -6781,8 +7063,10 @@
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="H65" s="27"/>
-    </row>
-    <row r="66" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>275</v>
       </c>
@@ -6798,12 +7082,14 @@
         <v>45</v>
       </c>
       <c r="G66" s="22">
-        <f t="shared" ref="G66:G97" si="2">E66/F66</f>
+        <f t="shared" ref="G66:G91" si="2">E66/F66</f>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+    </row>
+    <row r="67" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>311</v>
       </c>
@@ -6825,8 +7111,10 @@
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="H67" s="27"/>
-    </row>
-    <row r="68" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>358</v>
       </c>
@@ -6848,8 +7136,10 @@
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="H68" s="27"/>
-    </row>
-    <row r="69" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>301</v>
       </c>
@@ -6871,8 +7161,10 @@
         <v>4.2735042735042736E-2</v>
       </c>
       <c r="H69" s="27"/>
-    </row>
-    <row r="70" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>313</v>
       </c>
@@ -6896,8 +7188,10 @@
         <v>4.2105263157894736E-2</v>
       </c>
       <c r="H70" s="27"/>
-    </row>
-    <row r="71" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+    </row>
+    <row r="71" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>291</v>
       </c>
@@ -6919,8 +7213,10 @@
         <v>4.0697674418604654E-2</v>
       </c>
       <c r="H71" s="27"/>
-    </row>
-    <row r="72" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>297</v>
       </c>
@@ -6944,8 +7240,10 @@
         <v>4.0540540540540543E-2</v>
       </c>
       <c r="H72" s="27"/>
-    </row>
-    <row r="73" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+    </row>
+    <row r="73" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>317</v>
       </c>
@@ -6967,8 +7265,10 @@
         <v>0.04</v>
       </c>
       <c r="H73" s="27"/>
-    </row>
-    <row r="74" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>248</v>
       </c>
@@ -6990,8 +7290,10 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+    </row>
+    <row r="75" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>285</v>
       </c>
@@ -7013,8 +7315,10 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="H75" s="27"/>
-    </row>
-    <row r="76" spans="1:8" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="1:10" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>361</v>
       </c>
@@ -7038,8 +7342,10 @@
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="H76" s="27"/>
-    </row>
-    <row r="77" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+    </row>
+    <row r="77" spans="1:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>285</v>
       </c>
@@ -7061,8 +7367,10 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H77" s="27"/>
-    </row>
-    <row r="78" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>213</v>
       </c>
@@ -7084,8 +7392,10 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H78" s="27"/>
-    </row>
-    <row r="79" spans="1:8" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+    </row>
+    <row r="79" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>289</v>
       </c>
@@ -7105,8 +7415,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="H79" s="27"/>
-    </row>
-    <row r="80" spans="1:8" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+    </row>
+    <row r="80" spans="1:10" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
         <v>354</v>
       </c>
@@ -7130,8 +7442,10 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="H80" s="27"/>
-    </row>
-    <row r="81" spans="1:8" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+    </row>
+    <row r="81" spans="1:10" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>349</v>
       </c>
@@ -7153,8 +7467,10 @@
         <v>2.6490066225165563E-2</v>
       </c>
       <c r="H81" s="27"/>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>332</v>
       </c>
@@ -7174,8 +7490,10 @@
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="H82" s="27"/>
-    </row>
-    <row r="83" spans="1:8" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+    </row>
+    <row r="83" spans="1:10" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>224</v>
       </c>
@@ -7199,8 +7517,10 @@
         <v>2.4271844660194174E-2</v>
       </c>
       <c r="H83" s="27"/>
-    </row>
-    <row r="84" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+    </row>
+    <row r="84" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>327</v>
       </c>
@@ -7222,8 +7542,10 @@
         <v>2.3076923076923078E-2</v>
       </c>
       <c r="H84" s="27"/>
-    </row>
-    <row r="85" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+    </row>
+    <row r="85" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>347</v>
       </c>
@@ -7245,8 +7567,10 @@
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="H85" s="27"/>
-    </row>
-    <row r="86" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+    </row>
+    <row r="86" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>330</v>
       </c>
@@ -7268,8 +7592,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="H86" s="27"/>
-    </row>
-    <row r="87" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+    </row>
+    <row r="87" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>303</v>
       </c>
@@ -7289,8 +7615,10 @@
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="H87" s="27"/>
-    </row>
-    <row r="88" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+    </row>
+    <row r="88" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>334</v>
       </c>
@@ -7312,8 +7640,10 @@
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="H88" s="27"/>
-    </row>
-    <row r="89" spans="1:8" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+    </row>
+    <row r="89" spans="1:10" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>306</v>
       </c>
@@ -7337,8 +7667,10 @@
         <v>1.1764705882352941E-2</v>
       </c>
       <c r="H89" s="27"/>
-    </row>
-    <row r="90" spans="1:8" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+    </row>
+    <row r="90" spans="1:10" ht="22.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>342</v>
       </c>
@@ -7358,8 +7690,10 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="H90" s="27"/>
-    </row>
-    <row r="91" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+    </row>
+    <row r="91" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>338</v>
       </c>
@@ -7383,13 +7717,28 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="H91" s="27"/>
-    </row>
-    <row r="94" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+    </row>
+    <row r="94" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="SI">
+      <formula>NOT(ISERROR(SEARCH("SI",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3 I6 I11 I13 I19:I20 I24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="da vedere">
+      <formula>NOT(ISERROR(SEARCH("da vedere",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
